--- a/scraped_news.xlsx
+++ b/scraped_news.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1932 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Image Filename</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Will these drones ‘revolutionize’ 911 response? L.A. suburb will be first to test</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-23/hawthorne-police-test-brinc-911-responder-drone</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Several Southern California law enforcement agencies use drones in a variety of scenarios including hostage situations, missing persons and 911 response.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Ff5%2F65%2Fa402637347bd8d8001425dc6d03a%2F1446369-me-0509-hawthorne-drone-wjs006.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LA Times Today: California farmers are low on water. Why not help them go solar?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/0000018f-a2b8-daa9-a7df-aaff0b660000-123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Watch L.A.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F11%2F51%2Fccbe7e964c2e8bc36040e25df447%2Fcrops-to-solar-latt.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LA Times Today: Joshua Tree’s celebrity rattlesnake wrangler wants to change how you see reptiles</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/0000018f-a2b4-d675-a3ff-eeb6ef200000-123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Watch L.A.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F48%2Fb9%2F4a1d477d45ce95f126b0c765e7e0%2Frattlesnake-wrangler-latt.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L.A. has always been a restaurant town. Now restaurants are in trouble</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/newsletter/2024-05-23/l-a-has-always-been-a-restaurant-town-now-restaurants-are-in-trouble-essential-california</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>By the end of 2023, at least 65 notable restaurants had shut down in L.A. What does this mean for a city that wouldn’t be complete without its robust restaurant scene?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fb1%2F14%2F9fc1a3e0478f873e47465d1f4ecd%2Ffo-quick-bites-20220912-002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>‘You should be ashamed,’ congresswoman rails against UCLA chancellor, during antisemitism hearing</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-23/ucla-gene-block-antisemitism-hearing-live-updates</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Republicans investigate how pro-Palestinian protests and an encampment on campus were handled after videos show some activists preventing passage of students deemed to be Zionist.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fec%2F13%2F4332029f4e968bf9a7e88032da9c%2Fcongress-campus-protests-90035.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hijacked: A renter turned L.A. home into an illegal Airbnb from 5,000 miles away, lawsuit says</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-23/hijacked-how-renter-turned-l-a-home-into-an-illegal-airbnb-from-5-000-miles-away-lawsuit-says</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>For the last year, Nikeeta Sriram says she has watched helplessly as her tenant turned her L.A. home into a lucrative Airbnb against her will.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F08%2F92%2Fde22f31e4c589905ee70a66352f4%2F1450292-me-hijacked-home-airbnb-1-brv.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>California could boot thousands of immigrants from program that aids elderly and disabled</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-23/california-could-boot-thousands-of-immigrants-from-ihss-program</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>As budget cuts squeeze the state, California could yank help from unauthorized immigrants who are elderly, blind or otherwise disabled who rely on a program.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F6b%2F55%2F4eff408f4c519855d40b972a4ab0%2Fla-photos-1staff-525460-la-me-home-health-care-worker-12-als.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Newsom turns to suburban moms to bankroll Arizona abortion plan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-23/red-wine-blue-meet-the-suburban-moms-helping-arizonans-get-abortions-in-california</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Red Wine &amp; Blue, a political grassroots organization focused on suburban women, is funding a plan to expand abortion access</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F61%2F5f%2Ffff9b2884332b9f39f6b30e8aa3e%2Fla-na-red-wine-blue-001.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>California bill aims to end school gender notification policies — and protect teachers</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-22/california-bill-seeks-to-protect-teachers-amid-school-gender-notification-policies-and-lawsuits</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The legislation is the latest attempt by Democrats to crack down on policies that require educators to notify parents whose children use a different gender at school.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fd1%2F7d%2F255f135245f5974e1bdee19a2c41%2F1344937-me-orange-district-gender-id09-rc.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>New cars in California could alert drivers for breaking the speed limit</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-22/new-cars-in-california-could-alert-drivers-for-breaking-the-speed-limit</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A bill before California lawmakers would require new cars sold in the state in coming years to beep a warning whenever drivers exceed the speed limit by 10 mph</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fc1%2Fd6%2F2431af6aa25e849b9fc9a0a63391%2Faea8dbc93a484ddbb5ee028eed6d3261</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(un)Welcome to the state park with no official name — or a way in</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/newsletter/2024-05-22/unwelcome-to-the-state-park-with-no-official-name-or-a-way-in-essential-california</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>State officials bought land in the Sutter Buttes over two decades ago, thinking that neighboring landowners would work with them to facilitate public access. They thought wrong.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fcd%2F2a%2Ffcb3b96940708237a43e0ffd4956%2Fsutter-buttes-state-park06.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UCLA Chancellor Gene Block heads to D.C. for grilling on campus antisemitism</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-22/ucla-chancellor-gene-clock-congress-antisemitism-hearing</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The testimony — which will take place just over two months before Block steps down as chancellor — will be the first time the head of a California university addresses the House education committee.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F78%2F4e%2Fb78c17d246c39a53377e83374c4c%2F1328536-me-ucla-chancellor-gene-block-gxc-0999.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Solar eclipses are so last month. Get ready for a ‘planetary parade’</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-22/solar-eclipses-are-so-last-month-get-ready-for-a-planetary-parade</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A “planetary parade” will occur June 3, when Mercury, Mars, Jupiter, Saturn, Uranus and Neptune will be aligned. But your chances of seeing the planets will improve June 29.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F91%2F22%2F5834ae00496a8ac7bf6979158989%2Fla-photos-1staff-489804-la-hm-chris-erskine-griffith-park-observatory010-ls.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Orange County Fire Authority agrees to $580,000 settlement in lawsuit alleging gender discrimination</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-22/orange-county-fire-authority-agrees-to-580-000-settlement-in-lawsuit-alleging-gender-discrimination</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The fire agency settles with former spokeswoman Colleen Windsor, whose lawsuit alleged that male colleagues systematically harassed and undermined her.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fc5%2Fe1%2Fb47848c34a75b68b7526a6d8f85d%2Fla-photos-1staff-la-1561072932-keq14h9qyz-snap-image.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Column: California wants to mandate folic acid in tortillas to help babies. Why that’s bad</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-22/tortillas-folic-acid-corn-masa-california</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>It was time for the Great Tortilla Folic Acid Test. The 3.5-ounce bag of folic acid powder was available on Amazon for $20. I washed out my mouth with water, closed my eyes and took two warm corn tortillas.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fc2%2Fc8%2Fa931ba12494190e3ff88c02b392b%2F1449177-me-0516-calif-tortillas-folic-acid-gem-003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UC seeks injunction to halt strike as academic workers threaten to expand walkouts</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-21/university-of-california-seeks-injunction-to-immediately-halt-academic-workers-strike</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The legality of the ongoing strike by UC academic workers in support of pro-Palestinian demonstrators will go before the state labor board this week.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F55%2F00%2F6f38a1d84baf8b70592256ad316f%2Fap24141817220802.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>How Kevin McCarthy is influencing the race for his former congressional seat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/newsletter/2024-05-21/how-kevin-mccarthy-is-influencing-the-race-for-his-former-congressional-seat-essential-california</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>How Kevin McCarthy is influencing this congressional race — without being on the ballot</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F70%2Fab%2F74d398d44c7198c699cd60d2d246%2Fla-me-mike-boudreaux-vince-fong.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Column: A meeting of Cal State L.A. student encampments, 55 years apart</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-21/cal-state-la-encampamento-1969</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fifty-five years ago, a student encampment stood on the very spot at Cal State L.A. where pro-Palestinian students have set up tents now. Their asks were different, their spirits the same.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F41%2Ffa%2Ff2ed8d474f0cac6c7febcf7692d5%2F1449652-me-cal-state-la-encampment-03-mjc.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pro-Palestinian protesters move UC Santa Cruz encampment, join striking workers</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-20/pro-palestinian-protesters-move-uc-santa-cruz-camp-join-striking-workers</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Protesters relocated their days-old encampment — including tents and sleeping bags — to the entrance of the university to be closer to striking academic workers.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Faa%2F33%2Fb079eaa24a3eb3cdf1ed8987746f%2Fgettyimages-2153876773.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>He came to L.A. 3 months ago with his young family. A ride on a Metro bus led to his death</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-20/he-arrived-in-los-angeles-with-his-young-family-three-months-ago-he-was-shot-dead-on-a-bus</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A Metro bus passenger was killed in Commerce last week, three months after he arrived in the U.S. It’s the second fatal attack on the system in a month.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fcd%2Fc3%2F3ced15b340d79f8735606cf71170%2F1450408-me-0518-family-of-the-tourist-killed-on-a-metro-bus-speaks-out-gem-003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Judge reopens Paul Pelosi attacker sentencing after making ‘clear error’</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-20/judge-reopens-paul-pelosi-attacker-case</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The judge who sentenced David DePape in the attack of Paul Pelosi said she failed to give DePape an opportunity to speak before sentencing. It probably won’t change the jail sentence.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F52%2F54%2F9509e8177f3aa059f69d761b1311%2F15ab4439177c4d6c826476c4c63c9ee7</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Why is a stuffed burro facing eviction from Olvera Street?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/newsletter/2024-05-20/why-is-a-stuffed-burro-facing-eviction-from-olvera-street-essential-california</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>For 52 years, Jorge has never turned down a photo opportunity. Now, the stuffed donkey faces eviction from Olvera Street.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F2c%2F30%2F54c53eff470c932369c1fac403b1%2F1444800-me-cinco-de-mayo-olvera-street-jja-0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UC academic workers’ strike begins as pro-Palestinian activism enters new phase</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-20/uc-santa-cruz-student-workers-to-strike-monday-in-support-of-pro-palestinian-protests</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Academic workers walk out to support participants in the pro-Palestinian protests. UC officials call the strike illegal. It could spread to other campuses.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F91%2Fb2%2F4587e3f94db896e4c1eb77765ef3%2Fgettyimages-2153876794.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The magical California state park that doesn’t allow visitors</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-20/the-state-park-on-sutter-buttes-no-one-can-visit</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>For the last two decades, the Sutter Buttes have been home to a California state park that almost no one is allowed to visit.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F9c%2F03%2Faa48b9f84307a44870c1a25157f6%2Fsutter-buttes-state-park05.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Unconfirmed sighting of mountain lion near Griffith Park recalls L.A.’s favorite big cat, P-22</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-19/unconfirmed-sighting-of-mountain-lion-in-griffith-park-evokes-memories-and-majesty-of-las-favorite-cat-p-22</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The National Park Service, which has reviewed video footage of the sighting, is taking the claim seriously, according to spokesperson Ana Beatriz Cholo.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F78%2F78%2F216f6c8c4dd99ae89138a4093986%2Fmountainlion1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Newsom leaves the Vatican with pope’s praise for refusing to impose the death penalty</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-19/newsom-walks-away-from-the-vatican-with-popes-approval-on-death-penalty</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>When they spoke at the Vatican, Pope Francis praised California Gov. Gavin Newsom’s decision to temporarily end the death penalty.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Ff2%2F5c%2Fcf50cf6041f6b7e19ee5c8bc192a%2Fvatican-climate-79865.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Behind the scenes, the search for the next L.A. City Council president is under way</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/newsletter/2024-05-18/la-on-the-record-newsletter-marqueece-harris-dawson-builds-support-for-council-president-l-a-on-the-record</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>L.A. City Councilmember Marqueece Harris-Dawson said he’s been talking to his colleagues about “what they want in a president.” Some already support him</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fb8%2F7e%2F9b1f318f437486069424b30d4c96%2F1312351-me-0620-harris-dawson-004-ik.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Explore the best of the West with these extraordinary experiences</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/newsletter/2024-05-18/explore-the-best-of-the-west-with-these-extraordinary-experiences-essential-california</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>There’s something for everybody on the West Coast, but only if you know where to look. Our list of 101 best West Coast experiences can help you make the most of this coast.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F87%2Fcc%2Ff8c607d544e2acfacaeac42f0a83%2Fwc101-101-list-lead-final-0000001.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Supporters say ‘warmhearted’ alleged Mexican Mafia member deserves bail. Wiretaps reveal threats</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-18/johnny-martinez</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Prosecutors say Johnny Martinez was caught on a wiretap boasting of several murders, but he still has prominent voices calling for his release, including two L.A. County probation officials.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F2e%2F9c%2F12eca9704f54ad2640eba98d796a%2Fjohnny-martinez-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>California pays meth users up to $599 a year to get sober</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-18/california-pays-meth-users-up-to-599-a-year-to-get-sober</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>California’s Medicaid program is testing a novel approach for people addicted to methamphetamine, cocaine and other stimulants: For every clean urine test, they can earn money — up to $599 a year.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F01%2Fcb%2F98b6231c4ffba3772841611b14fa%2Fla-me-coburn-02.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>California school district becomes first in nation to go all electric buses</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-18/oakland-unified-switches-to-all-electric-buses</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Oakland Unified announced Thursday that it is the first school district in the nation to use a fully electric bus fleet.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F6a%2Fe6%2Fa7e27a2441dc9b7eda4a9a9448c7%2Fzum-0458-highres.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Teachers criticize Newsom’s budget proposal, saying it would ‘wreak havoc on funding for our schools’</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-17/teachers-criticize-newsom-budget-proposal-wreak-havoc-funding-for-schools-prop-98</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>California’s largest teachers union is looking to block part of the governor’s plan to balance the budget, saying it ‘would wreak havoc’ on school funding.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fea%2Fd9%2F756b013c5da4bbcd5d17657edbb4%2Fd001932dfdde4d2ebca6005261c029bc</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ex-congressman from Fresno expected to take plea deal in federal fraud case</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-17/la-me-former-congressman-cox-plea-deal-federal-fraud-case</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>T.J. Cox is finalizing a plea deal in a sweeping federal case in which he is accused of campaign contribution fraud and stealing from his own companies.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F50%2Fc6%2Fa6d98f4b4e60b4a6d3f4275837b8%2Fap20275120939354.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>David DePape sentenced to 30 years in attempted Nancy Pelosi kidnapping, hammer attack on husband</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-17/depape-sentenced-30-years-paul-pelosi-hammer-attack</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>The sentencing caps a federal trial that raised chilling questions about the safety of public officials amid heightened political extremism and the proliferation of online platforms that give traction to baseless conspiracy theories.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F52%2F54%2F9509e8177f3aa059f69d761b1311%2F15ab4439177c4d6c826476c4c63c9ee7</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Santa Ana mother charged with beating infant, breaking 16 bones</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-17/santa-ana-mother-charged-with-beating-infant-breaking-16-bones</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Santa Ana parents are facing years in prison if convicted of child abuse that left their 5-week-old infant with broken bones.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Feb%2Fa8%2F54e028874b69918b2438beceabfa%2F960616-church-shooting-presser-13-ajs.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>UC officials charge that academic workers’ strike over pro-Palestinian protests is illegal</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-17/uc-academic-student-workers-santa-cruz-strike</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>The union representing UC academic workers said Friday that its members at UC Santa Cruz would go on strike Monday over alleged worker rights and free speech violations.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F51%2F97%2Ffab73e8e424b928ca43664e334f9%2F1216850-me-1115-academic-workers-strike-011-ik.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>A policing surge is coming to L.A. Metro. Critics call it more of the ‘same failed solution’</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/newsletter/2024-05-17/a-law-enforcement-surge-is-coming-to-l-a-metro-critics-call-it-more-of-a-failed-solution-essential-california</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Transit advocates say the law enforcement agencies that Metro pays to patrol its system did not prevent a recent spate of violent attacks. They say investing more in social outreach will bring real improvements.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F00%2F52%2F690e3d2d4c0da272e3670dbb7506%2F1448520-me-0515-violence-metro-rail-wjs020.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LA Times Today: Patt Says: San Francisco sues Oakland over proposed airport name change</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/0000018f-8416-d7b9-a9bf-ff3fe7330000-123</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Watch L.A.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fa8%2Fbf%2Fbb15dfca467a9a285e0339efa0f1%2Fpatt-says-oakland-airport-latt.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>At Homeboy, the scoop on Father Greg and his latest honor, from those who know him best</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-17/lopez-column-homeboy-father-greg-boyle-presidential-medal-of-freedom</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>It’s about time, former gang members say of Homeboy Industries’ Father Greg Boyle being awarded the Presidential Medal of Freedom.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F48%2F70%2Fa5ee2e6a4b42a566a8afd3f06b50%2F1449113-me-0517-homeboy-march-to-city-hall-003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>She couldn’t call, so human-trafficking victim texted 911 — and saved herself, officials say</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-17/human-trafficking-victim-texted-911-saved-herself</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>The Ventura County Sheriff’s Office said a teenager began texting 911 with ‘pleas for help’ around 3 a.m. on May 9.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fef%2F12%2Facc1c82349d2ad015709fbe0e3e3%2Fla-photos-1staff-573894-la-me-missing-lake-piru-46-als-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Judge finds potential conflict with lawyer representing Rebecca Grossman and prosecutor, but resolves issue with waiver</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-17/rebecca-grossmans-lawyer-is-center-of-conflict-of-interest-motion-by-prosecutors</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A motion by the prosecution sought to either remove the convicted murderer’s new lead attorney or have her formally waive a conflict of interest. She agreed to the latter.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F55%2F9e%2F63f9e92045f7870018de5cf152bf%2F1410675-me-0214-rebecca-grossman-trial-002-ik.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>L.A.’s accidental homelessness ‘czar’? U.S. District Judge David O. Carter</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-17/its-often-been-said-that-l-a-needs-a-homelessness-czar-now-it-has-one-a-federal-judge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Two federal lawsuits challenging the homelessness practices of Los Angeles city and county and the U.S. government have allowed U.S. District Judge David O. Carter to assume powers that make him as close as it gets to the ever wished-for homelessness czar.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F2e%2Ff1%2Ff4a098d14df4a59364a6f3c941dc%2F1354620-me-0929-judge-carter-tours-skid-row-gem-010.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Protester gets $1.5-million settlement over testicle injury caused by LAPD projectile</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-17/protester-injured-by-lapd-projectile-2020-settlement</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A protester whose testicle exploded when an LAPD officer shot him with a hard-foam projectile during a street demonstration in 2020 has received a $1.5-million settlement from the city.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F88%2F33%2F4d46f82b4909855695fbae88785e%2Fla-me-montemayor-video.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>LAUSD police deployment to 20 schools collapses after one day amid opposition, confusion</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-17/lausd-returns-school-police-to-20-campuses-then-walks-back-part-of-plan-after-pushback</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>L.A. school board members say they did not know in advance of a police deployment to 20 troubled campuses -- and some are unhappy about it.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F61%2Fdf%2F53916ef54536aecf904b58a9ffc5%2F928280-me-fight-at-crenshaw-high-school001-ls.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mayor Bass orders police ‘surge’ on Metro bus and rail routes amid spike in violence</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-16/mayor-bass</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Amid a spike in violence on trains and buses, Mayor Karen Bass calls in more police patrols. The fatal stabbing of a 66-year-old subway rider put the transit agency on edge last month, as pressure grew to respond.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F65%2Fdb%2F9722d1284286a4db0597702ab568%2F1448520-me-0515-violence-metro-rail-wjs001.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Why having accessible data is important. Here’s how we dived into statistics to understand AAPI communities in Southern California</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-16/why-having-accessible-data-is-important-heres-how-we-dived-into-statistics-to-understand-aapi-communities-in-southern-california</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Driven in part by lived experience as two first-generation Asian Americans who grew up in large AAPI communities, Times journalists turned to Census data to quantify the size and ethnic diversity of the fastest-growing demographic in the United States.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F05%2F7d%2F88df91584a858a70a298c1a2e561%2F1393421-me-little-tokyo-evolution-4-brv.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>LA Times Today: A young actress, an obsessed stalker and a Hollywood murder that changed America</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/0000018f-7e7d-dfd5-afaf-7f7f17860001-123</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Watch L.A.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F3d%2F89%2F0a1f204f4c88a56f7e68170c2623%2Fcriminal-record-rebecca-shaeffer-latt.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Why your electricity bill might go up as early as next year</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/newsletter/2024-05-16/why-your-electricity-bill-might-go-up-as-early-as-next-year-essential-california</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>With little public debate, state lawmakers passed a complex energy bill that upended how most Californians are billed for electricity.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F94%2F27%2F452914948b3c08bbf9bf8824dca8%2F801696d2040247888997956104a12a64</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Gavin Newsom, during his speech at the Vatican on climate change, accuses Trump of ‘open corruption’</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-16/newsom-california-vatican-speech-pope</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Gov. Gavin Newsom called out former President Trump’s efforts to roll back climate change policies on a world stage during a climate summit at the Vatican.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F37%2Faa%2F775572674c7eaca19063f4b32d71%2Fvatican-climate-33710.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>California is changing how big power companies charge for electricity. What to expect on your bill</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-16/california-is-changing-electricity-billing-what-to-expect</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>State regulators have decided to let investor-owned utilities impose a new flat fee on your electric bill and decrease the usage charges. But customers who typically use less energy might see an increase in their bill.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F51%2Fb3%2Fdd15c9d5437781b3740c97d26cf5%2F1343055-me-0926-rural-electric-school-bus-020-iok.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>‘Maximize chaos.’ UC academic workers authorize strike, alleging rights violated during protests</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-15/uc-academic-workers-strike-vote</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>United Auto Workers Local 4811, which represents 48,000 student workers in the University of California system, authorized a strike alleging their workers’ rights were violated in actions against pro-Palestinian protests.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fd2%2F17%2F63db997348d795163fd4ca0fb4ff%2F1216225-me-uc-academic-workers-strike01-ch.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Moorpark professor to stand trial in bludgeoning death of pro-Israeli counterprotester Paul Kessler</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-15/moorpark-man-to-stand-trial-for-death-of-israeli-counter-protester</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>There is enough evidence for a trial against Moorpark’s Loay Abdel Fattah Alnaji, a judge ruled. He is charged with involuntary manslaughter in the death of Paul Kessler at a protest.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F6a%2Fa3%2F633f98cb48529446a3e7f426ad54%2F1371808-me-1107-israel-hamas-protest3-wjs.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Downey will stop flying Pride flag. Some call it ‘a step backward for our city’</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-15/downey-reverses-policy-on-flying-pride-flag-critics-call-it-a-step-backwards-for-our-city</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Downey’s City Council voted 3 to 2 to approve a neutral flag policy in the city, reversing a previous policy that allowed for the flying of other flags, including the LGBTQ+ Pride flag.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F81%2F7f%2Fb0f06179498aa982efe81d3f8cf3%2F1304483-me-pride-flag-event-gxc-0837.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sen. Bernie Sanders endorses 2 California ballot measures, including rent control expansion</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-15/sen-bernie-sanders-endorses-two-statewide-ballot-measures</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sen. Bernie Sanders of Vermont is throwing his support behind two California ballot measures related to rent control and restrictions on oil drilling.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F6f%2Fa6%2Fd5bf3b4f4ff097d5246da2f6d00b%2Fla-photos-wap-bernie-sanders.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Project Roomkey was meant to ‘protect human life.’ A new report tracks its performance</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/newsletter/2024-05-15/project-roomkey-was-meant-to-protect-human-life-a-new-report-tracks-its-performance-essential-california</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Limited data and low rates of connections to permanent housing show progress on the homelessness crisis remains a steep battle.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fd8%2Fc3%2Fed89d493451a98b57be1d64d4cb3%2Fla-photos-1staff-570857-me-0708-homeless-freeways-gem-028.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Column: L.A.’s only Spanish-language children’s bookstore will soon get más grande</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-15/la-libreria-bilingual-bookstore</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cool stuff was everywhere I looked. A compendium of Latin American folk tales. A young-adult version of radio legend Maria Hinojosa’s memoir. Picture books teaching Spanish speakers words in Nahuatl and Maya.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F74%2F56%2Fd9fee18948d1ad20c0ba1fb7ea35%2F1443567-me-bi-lingual-bookstore33-el.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>L.A.’s dirtiest cop: A mild-mannered traffic officer who moonlighted as a hit man</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-15/criminal-record-the-crimes-of-william-leasure</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>William Leasure, killer cop, still denies the big crimes, the ones that put him in prison: orchestrating the contract murders of a beauty shop employee and a jazz bassist.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fzbk%2Fdamlat_images%2FLA%2FLA_PHOTO_SELECTS%2F2016_05%2Fla-leasure6.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Climate change is central to both Pope Francis and Newsom. But do Catholic voters care?</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-15/newsom-pope-francis-vatican-climate-conference-catholic-voters</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Gov. Gavin Newsom is speaking at the Vatican at a climate conference that gives him and his party an opportunity to align with Pope Francis in a critical election year.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F97%2F2e%2Fd0b8fbf7487b90f1bde07ef61ab4%2F1426707-me-0322-stricter-oil-rules-rcg-5845.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Vietnamese groups furious over ‘Jane Fonda Day’ in L.A. County</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-15/la-county-to-change-date-of-jane-fonda-day-after-backlash</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>The Board of Supervisors will consider moving Jane Fonda Day to April 8 instead of its original proposal of April 30, the day of the fall of Saigon in 1975.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F80%2Faa%2F2dec7e394dfb9f2d421c71e68450%2F1180893-me-0901-jane-fonda-endorsements-cmh-01.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ethics reform measure will go to L.A. voters. Critics say it’s watered down</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-15/l-a-city-council-backs-ballot-measure-for-changes-to-ethics-commission</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Watchdog groups were deeply disappointed, saying the measure does not go far enough after the City Council watered down a proposal that had more sweeping changes.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F32%2F00%2F7b53432e447ba6949295c9c48cfb%2F1386291-me-1212-city-council-gem-012.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Woman makes history with shark-infested swim to remote California island</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-15/california-woman-swims-san-francisco-to-farrallon-islands</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>On Saturday, Amy Appelhans Gubser became the first person, male or female, to swim from the Golden Gate Bridge to the Farallon Islands.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fc7%2F8b%2Fef329f76440ba272ed3c729ccf13%2Fgrandmother-swimfrom-san-francisco-to-the-farrallon-islands01.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Buying a home in Southern California? There are now more options</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-15/buying-a-home-in-southern-california-theres-suddenly-more-options</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>The number of homes in many corners of Southern California rose for the first time in more than a year, providing some relief to would-be buyers.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F0a%2F45%2F314988024a479f704c308172c19d%2F1199943-fi-home-prices-southland-36.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>UC Berkeley to consider divesting from weapons makers as pro-Palestinian protesters break camp</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-14/uc-berkeley-protestors-dismantle-pro-palestinian-encampment</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Pro-Palestinian protesters at UC Berkeley removed their encampment after talks with the university, which said it will consider their divestment demands.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fc9%2Fca%2Fd54d78a34e48b4bb6a34826dc1e0%2Fhttps-delivery-gettyimages.com%2Fdownloads%2F2149770857</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Rebecca Grossman’s lawyers file motion for new trial, seek to overturn murder conviction</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-14/rebecca-grossmans-lawyer-files-motion-for-new-trial-seeks-to-overturn-murder-conviction</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>New attorneys for Rebecca Grossman say prosecutors failed to prove she acted with implied malice and that erroneous evidence was admitted in her trial.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fbd%2F62%2F9d0322e645b189ef325311bd3bb4%2F1410675-me-0214-rebecca-grossman-trial-005-ik.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SpaceX plans to launch 90 rockets from Vandenberg Space Force Base by 2026. Could that harm the coast?</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-14/spacex-to-launch-90-rockets-from-vandenberg-by-2026-coastal-impacts</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Elon Musk’s SpaceX plans to launch 90 rockets into space by 2026, but the California Coastal Commission is raising concerns about how marine life would be affected.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F4d%2Ff5%2F62a3d7d7415db8ee4e23d9f9dd04%2F1425252-me-rocket-launch-vandenberg-01-mjc.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Three people stabbed in two separate incidents on Metro system</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-14/three-people-stabbed-on-los-angeles-county-metro-system-in-separate-incidents</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>All three are expected to survive, according to authorities. The attacks represent the latest violence on L.A. County’s mass transit system.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fab%2Ff4%2F526c72594ce386c603ef889a5adc%2Fla-vermont-athens-metro-train-station.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>California’s budget deficit has grown. Here’s how Gov. Newsom is responding</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/newsletter/2024-05-14/california-budget-deficit-prompts-newsom-to-propose-cuts-essential-california</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Gov. Gavin Newsom is proposing one-time or ongoing reductions for 260 government programs, including many that deal with affordable housing and climate change.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F7a%2Ff1%2Fe53d6d3c4246b2d9c6ee32c6dba5%2Fap24131745004774.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>$3.3 billion available for mental health beds as Newsom jump-starts Prop. 1 spending</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-14/california-3-3-billion-available-for-mental-health-beds</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Newsom announced that the state will make $3.3 billion in funding available by July to begin building mental health treatment centers.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F9d%2F34%2Fac7bb8e9440e915aa0d708db0a2e%2F1393827-me-newsom-prop-1-mjc-003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>LAUSD parents and teachers in uproar over timed academic testing for 4-year-olds</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-14/lausd-wants-transitional-kindergarteners-to-test-parents-uproar</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>LAUSD is giving transitional kindergarteners a test meant for kindergarteners. Some worry the district’s unusual decision won’t accurately assess their skills.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F6e%2Fbe%2Fecfa076449038f9df8ce5a062e3b%2F1445877-me-standardized-tk-testing-mdb-tkprogramstandarizedtest03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>California exodus left a gaping population hole. Can the Golden State finally bounce back?</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.latimes.com/california/story/2024-05-14/california-exodus-left-a-gaping-population-hole</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>More than half of California’s counties have populations lower than they were in 2019, according to data from the state Department of Finance. The state has yet to recover from the exodus.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fd7%2F75%2F83efa0264e869ef6db8805839d18%2F1409462-me-0213-struggling-offices-dtla-004-ik.jpg</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scraped_news.xlsx
+++ b/scraped_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,1903 +451,2286 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Picture Filename</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Image Filename</t>
+          <t>Search Phrases Count</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Contains Money Format</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Will these drones ‘revolutionize’ 911 response? L.A. suburb will be first to test</t>
+          <t>Move over, poppies. Roses are having a moment in Southern California</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-23/hawthorne-police-test-brinc-911-responder-drone</t>
+          <t>2024-05-25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Several Southern California law enforcement agencies use drones in a variety of scenarios including hostage situations, missing persons and 911 response.</t>
+          <t>California’s state flower, the poppy, isn’t having a superbloom this year. Right now the rose is having a moment.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Ff5%2F65%2Fa402637347bd8d8001425dc6d03a%2F1446369-me-0509-hawthorne-drone-wjs006.jpg</t>
-        </is>
+          <t>la-wk-best-rose-gardens-expopark-markovitz-11.jpg</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LA Times Today: California farmers are low on water. Why not help them go solar?</t>
+          <t>Column: In the land of giant sequoias, the largest tree in the world gets a checkup</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/0000018f-a2b8-daa9-a7df-aaff0b660000-123</t>
+          <t>2024-05-25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Watch L.A.</t>
+          <t>General Sherman appears to be holding up well (not bad for a 2,200-year-old), but because of pests and climate change, the largest tree in the world needs a checkup</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F11%2F51%2Fccbe7e964c2e8bc36040e25df447%2Fcrops-to-solar-latt.png</t>
-        </is>
+          <t>1448546-me-0521-lopez-general-sherman-tree-gem-001.jpg</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LA Times Today: Joshua Tree’s celebrity rattlesnake wrangler wants to change how you see reptiles</t>
+          <t>Riverside woman who bombarded Jewish family with ‘hate-filled’ phone calls sentenced to prison</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/0000018f-a2b4-d675-a3ff-eeb6ef200000-123</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Watch L.A.</t>
+          <t>Melanie Harris was sentenced to 32 months in prison for bombarding the former executive director of Pittsburgh’s Tree of Life synagogue with phone calls and antisemitic messages.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F48%2Fb9%2F4a1d477d45ce95f126b0c765e7e0%2Frattlesnake-wrangler-latt.png</t>
-        </is>
+          <t>pittsburgh-synagogue-shooting-memorial-99700.jpg</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L.A. has always been a restaurant town. Now restaurants are in trouble</t>
+          <t>Marqueece Harris-Dawson secures enough support to become the next L.A. City Council president</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/newsletter/2024-05-23/l-a-has-always-been-a-restaurant-town-now-restaurants-are-in-trouble-essential-california</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>By the end of 2023, at least 65 notable restaurants had shut down in L.A. What does this mean for a city that wouldn’t be complete without its robust restaurant scene?</t>
+          <t>The proposal would trigger a vote on the council presidency on Tuesday. If approved, Harris-Dawson would fill the council’s top leadership post on Sept. 20.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fb1%2F14%2F9fc1a3e0478f873e47465d1f4ecd%2Ffo-quick-bites-20220912-002.jpg</t>
-        </is>
+          <t>1394812-me-cd8-voter-guide-marqueece-harris-dawson-06-mjc.jpg</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>‘You should be ashamed,’ congresswoman rails against UCLA chancellor, during antisemitism hearing</t>
+          <t>Skip the DMV visit. You can now complete these services online</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-23/ucla-gene-block-antisemitism-hearing-live-updates</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Republicans investigate how pro-Palestinian protests and an encampment on campus were handled after videos show some activists preventing passage of students deemed to be Zionist.</t>
+          <t>The DMV is expanding its online services so you don’t have to visit your local DMV office.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fec%2F13%2F4332029f4e968bf9a7e88032da9c%2Fcongress-campus-protests-90035.jpg</t>
-        </is>
+          <t>la-photos-1staff-588832-me-0813-dmv-coronavirus-012.IK.JPG</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hijacked: A renter turned L.A. home into an illegal Airbnb from 5,000 miles away, lawsuit says</t>
+          <t>Congressional testimony, encampments and labor action: What to know about UC campus turmoil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-23/hijacked-how-renter-turned-l-a-home-into-an-illegal-airbnb-from-5-000-miles-away-lawsuit-says</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>For the last year, Nikeeta Sriram says she has watched helplessly as her tenant turned her L.A. home into a lucrative Airbnb against her will.</t>
+          <t>UC officials are contending with ongoing Gaza war protests, the fallout of violence at UCLA — and now a UC Santa Cruz labor strike that could soon spread.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F08%2F92%2Fde22f31e4c589905ee70a66352f4%2F1450292-me-hijacked-home-airbnb-1-brv.jpg</t>
-        </is>
+          <t>1452478-me-0523-new-ucla-encampment-cmh-20.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>California could boot thousands of immigrants from program that aids elderly and disabled</t>
+          <t>Patt Morrison: California settled no-fault divorce decades ago. Why is it back in the news?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-23/california-could-boot-thousands-of-immigrants-from-ihss-program</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>As budget cuts squeeze the state, California could yank help from unauthorized immigrants who are elderly, blind or otherwise disabled who rely on a program.</t>
+          <t>California was the first state to enact no-fault divorce. Why is it back in the news?</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F6b%2F55%2F4eff408f4c519855d40b972a4ab0%2Fla-photos-1staff-525460-la-me-home-health-care-worker-12-als.jpg</t>
-        </is>
+          <t>wyman-reagan-1942.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Newsom turns to suburban moms to bankroll Arizona abortion plan</t>
+          <t>There is a new deadline to get the Real ID. Here’s why you need one</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-23/red-wine-blue-meet-the-suburban-moms-helping-arizonans-get-abortions-in-california</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Red Wine &amp; Blue, a political grassroots organization focused on suburban women, is funding a plan to expand abortion access</t>
+          <t>The deadline to get the Real ID is May 2025. The new form of identification isn’t required but it is needed to board domestic flights and enter certain federal buildings.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F61%2F5f%2Ffff9b2884332b9f39f6b30e8aa3e%2Fla-na-red-wine-blue-001.jpg</t>
-        </is>
+          <t>real-id.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>California bill aims to end school gender notification policies — and protect teachers</t>
+          <t>LAUSD caves to public outcry: No more timed testing for 4-year-olds</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-22/california-bill-seeks-to-protect-teachers-amid-school-gender-notification-policies-and-lawsuits</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The legislation is the latest attempt by Democrats to crack down on policies that require educators to notify parents whose children use a different gender at school.</t>
+          <t>LAUSD has made transitional kindergarten testing optional after months of complaints from teachers and parents, who say it’s inappropriate for preschool-age kids.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fd1%2F7d%2F255f135245f5974e1bdee19a2c41%2F1344937-me-orange-district-gender-id09-rc.jpg</t>
-        </is>
+          <t>1334386-me-lausd-first-day-020-als.jpg</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>New cars in California could alert drivers for breaking the speed limit</t>
+          <t>Looking to vacation on the California coast? Marin County just made it harder</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-22/new-cars-in-california-could-alert-drivers-for-breaking-the-speed-limit</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A bill before California lawmakers would require new cars sold in the state in coming years to beep a warning whenever drivers exceed the speed limit by 10 mph</t>
+          <t>Marin County, with its rugged beaches and pristine lands, has put a hard cap on short-term rentals, setting off furious debate: Are vacation rentals ruining California’s coastal towns? Or opening up the coast to people who can’t afford to live there?</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fc1%2Fd6%2F2431af6aa25e849b9fc9a0a63391%2Faea8dbc93a484ddbb5ee028eed6d3261</t>
-        </is>
+          <t>1438387-me-0424-dillon-beach-vacation-rentals-gem-001.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(un)Welcome to the state park with no official name — or a way in</t>
+          <t>L.A. City Council approves Mayor Karen Bass’ budget, cutting 1,700 vacant positions</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/newsletter/2024-05-22/unwelcome-to-the-state-park-with-no-official-name-or-a-way-in-essential-california</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>State officials bought land in the Sutter Buttes over two decades ago, thinking that neighboring landowners would work with them to facilitate public access. They thought wrong.</t>
+          <t>Councilmembers Hugo Soto-Martínez, Eunisses Hernandez and Nithya Raman voted no, voicing alarm at the reductions.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fcd%2F2a%2Ffcb3b96940708237a43e0ffd4956%2Fsutter-buttes-state-park06.JPG</t>
-        </is>
+          <t>1229284-me-city-council-meeting-48-brv.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UCLA Chancellor Gene Block heads to D.C. for grilling on campus antisemitism</t>
+          <t>Amid allegations against Sean ‘Diddy’ Combs, lawmaker wants to expand domestic abuse prosecutions</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-22/ucla-chancellor-gene-clock-congress-antisemitism-hearing</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The testimony — which will take place just over two months before Block steps down as chancellor — will be the first time the head of a California university addresses the House education committee.</t>
+          <t>California state Sen. Susan Rubio has introduced legislation to increase the statute of limitations on domestic abuse cases.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F78%2F4e%2Fb78c17d246c39a53377e83374c4c%2F1328536-me-ucla-chancellor-gene-block-gxc-0999.jpg</t>
-        </is>
+          <t>la-photos-1staff-20190912-sacramentopol-robertgourley-905.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Solar eclipses are so last month. Get ready for a ‘planetary parade’</t>
+          <t>Will these drones ‘revolutionize’ 911 response? L.A. suburb will be first to test</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-22/solar-eclipses-are-so-last-month-get-ready-for-a-planetary-parade</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A “planetary parade” will occur June 3, when Mercury, Mars, Jupiter, Saturn, Uranus and Neptune will be aligned. But your chances of seeing the planets will improve June 29.</t>
+          <t>Several Southern California law enforcement agencies use drones in a variety of scenarios including hostage situations, missing persons and 911 response.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F91%2F22%2F5834ae00496a8ac7bf6979158989%2Fla-photos-1staff-489804-la-hm-chris-erskine-griffith-park-observatory010-ls.jpg</t>
-        </is>
+          <t>1446369-me-0509-hawthorne-drone-wjs006.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Orange County Fire Authority agrees to $580,000 settlement in lawsuit alleging gender discrimination</t>
+          <t>LA Times Today: California farmers are low on water. Why not help them go solar?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-22/orange-county-fire-authority-agrees-to-580-000-settlement-in-lawsuit-alleging-gender-discrimination</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The fire agency settles with former spokeswoman Colleen Windsor, whose lawsuit alleged that male colleagues systematically harassed and undermined her.</t>
+          <t>Watch L.A.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fc5%2Fe1%2Fb47848c34a75b68b7526a6d8f85d%2Fla-photos-1staff-la-1561072932-keq14h9qyz-snap-image.jpg</t>
-        </is>
+          <t>crops-to-solar-latt.png</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Column: California wants to mandate folic acid in tortillas to help babies. Why that’s bad</t>
+          <t>LA Times Today: Joshua Tree’s celebrity rattlesnake wrangler wants to change how you see reptiles</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-22/tortillas-folic-acid-corn-masa-california</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>It was time for the Great Tortilla Folic Acid Test. The 3.5-ounce bag of folic acid powder was available on Amazon for $20. I washed out my mouth with water, closed my eyes and took two warm corn tortillas.</t>
+          <t>Watch L.A.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fc2%2Fc8%2Fa931ba12494190e3ff88c02b392b%2F1449177-me-0516-calif-tortillas-folic-acid-gem-003.jpg</t>
-        </is>
+          <t>rattlesnake-wrangler-latt.png</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UC seeks injunction to halt strike as academic workers threaten to expand walkouts</t>
+          <t>L.A. has always been a restaurant town. Now restaurants are in trouble</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-21/university-of-california-seeks-injunction-to-immediately-halt-academic-workers-strike</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The legality of the ongoing strike by UC academic workers in support of pro-Palestinian demonstrators will go before the state labor board this week.</t>
+          <t>By the end of 2023, at least 65 notable restaurants had shut down in L.A. What does this mean for a city that wouldn’t be complete without its robust restaurant scene?</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F55%2F00%2F6f38a1d84baf8b70592256ad316f%2Fap24141817220802.jpg</t>
-        </is>
+          <t>fo-quick-bites-20220912-002.jpg</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>How Kevin McCarthy is influencing the race for his former congressional seat</t>
+          <t>Hijacked: A renter turned L.A. home into an illegal Airbnb from 5,000 miles away, lawsuit says</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/newsletter/2024-05-21/how-kevin-mccarthy-is-influencing-the-race-for-his-former-congressional-seat-essential-california</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>How Kevin McCarthy is influencing this congressional race — without being on the ballot</t>
+          <t>For the last year, Nikeeta Sriram says she has watched helplessly as her tenant turned her L.A. home into a lucrative Airbnb against her will.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F70%2Fab%2F74d398d44c7198c699cd60d2d246%2Fla-me-mike-boudreaux-vince-fong.jpg</t>
-        </is>
+          <t>1450292-me-hijacked-home-airbnb-1-brv.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Column: A meeting of Cal State L.A. student encampments, 55 years apart</t>
+          <t>California could boot thousands of immigrants from program that aids elderly and disabled</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-21/cal-state-la-encampamento-1969</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fifty-five years ago, a student encampment stood on the very spot at Cal State L.A. where pro-Palestinian students have set up tents now. Their asks were different, their spirits the same.</t>
+          <t>As budget cuts squeeze the state, California could yank help from unauthorized immigrants who are elderly, blind or otherwise disabled who rely on a program.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F41%2Ffa%2Ff2ed8d474f0cac6c7febcf7692d5%2F1449652-me-cal-state-la-encampment-03-mjc.jpg</t>
-        </is>
+          <t>la-photos-1staff-525460-la-me-home-health-care-worker-12-als.jpg</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pro-Palestinian protesters move UC Santa Cruz encampment, join striking workers</t>
+          <t>Newsom turns to suburban moms to bankroll Arizona abortion plan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-20/pro-palestinian-protesters-move-uc-santa-cruz-camp-join-striking-workers</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Protesters relocated their days-old encampment — including tents and sleeping bags — to the entrance of the university to be closer to striking academic workers.</t>
+          <t>Red Wine &amp; Blue, a political grassroots organization focused on suburban women, is funding a plan to expand abortion access</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Faa%2F33%2Fb079eaa24a3eb3cdf1ed8987746f%2Fgettyimages-2153876773.jpg</t>
-        </is>
+          <t>la-na-red-wine-blue-001.jpg</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>He came to L.A. 3 months ago with his young family. A ride on a Metro bus led to his death</t>
+          <t>California bill aims to end school gender notification policies — and protect teachers</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-20/he-arrived-in-los-angeles-with-his-young-family-three-months-ago-he-was-shot-dead-on-a-bus</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A Metro bus passenger was killed in Commerce last week, three months after he arrived in the U.S. It’s the second fatal attack on the system in a month.</t>
+          <t>The legislation is the latest attempt by Democrats to crack down on policies that require educators to notify parents whose children use a different gender at school.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fcd%2Fc3%2F3ced15b340d79f8735606cf71170%2F1450408-me-0518-family-of-the-tourist-killed-on-a-metro-bus-speaks-out-gem-003.jpg</t>
-        </is>
+          <t>1344937-me-orange-district-gender-id09-rc.jpg</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Judge reopens Paul Pelosi attacker sentencing after making ‘clear error’</t>
+          <t>New cars in California could alert drivers for breaking the speed limit</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-20/judge-reopens-paul-pelosi-attacker-case</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The judge who sentenced David DePape in the attack of Paul Pelosi said she failed to give DePape an opportunity to speak before sentencing. It probably won’t change the jail sentence.</t>
+          <t>A bill before California lawmakers would require new cars sold in the state in coming years to beep a warning whenever drivers exceed the speed limit by 10 mph</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F52%2F54%2F9509e8177f3aa059f69d761b1311%2F15ab4439177c4d6c826476c4c63c9ee7</t>
-        </is>
+          <t>aea8dbc93a484ddbb5ee028eed6d3261.jpg</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Why is a stuffed burro facing eviction from Olvera Street?</t>
+          <t>(un)Welcome to the state park with no official name — or a way in</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/newsletter/2024-05-20/why-is-a-stuffed-burro-facing-eviction-from-olvera-street-essential-california</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>For 52 years, Jorge has never turned down a photo opportunity. Now, the stuffed donkey faces eviction from Olvera Street.</t>
+          <t>State officials bought land in the Sutter Buttes over two decades ago, thinking that neighboring landowners would work with them to facilitate public access. They thought wrong.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F2c%2F30%2F54c53eff470c932369c1fac403b1%2F1444800-me-cinco-de-mayo-olvera-street-jja-0003.jpg</t>
-        </is>
+          <t>sutter-buttes-state-park06.JPG</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UC academic workers’ strike begins as pro-Palestinian activism enters new phase</t>
+          <t>UCLA Chancellor Gene Block heads to D.C. for grilling on campus antisemitism</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-20/uc-santa-cruz-student-workers-to-strike-monday-in-support-of-pro-palestinian-protests</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Academic workers walk out to support participants in the pro-Palestinian protests. UC officials call the strike illegal. It could spread to other campuses.</t>
+          <t>The testimony — which will take place just over two months before Block steps down as chancellor — will be the first time the head of a California university addresses the House education committee.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F91%2Fb2%2F4587e3f94db896e4c1eb77765ef3%2Fgettyimages-2153876794.jpg</t>
-        </is>
+          <t>1328536-me-ucla-chancellor-gene-block-gxc-0999.jpg</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>The magical California state park that doesn’t allow visitors</t>
+          <t>Solar eclipses are so last month. Get ready for a ‘planetary parade’</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-20/the-state-park-on-sutter-buttes-no-one-can-visit</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>For the last two decades, the Sutter Buttes have been home to a California state park that almost no one is allowed to visit.</t>
+          <t>A “planetary parade” will occur June 3, when Mercury, Mars, Jupiter, Saturn, Uranus and Neptune will be aligned. But your chances of seeing the planets will improve June 29.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F9c%2F03%2Faa48b9f84307a44870c1a25157f6%2Fsutter-buttes-state-park05.JPG</t>
-        </is>
+          <t>la-photos-1staff-489804-la-hm-chris-erskine-griffith-park-observatory010-ls.jpg</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Unconfirmed sighting of mountain lion near Griffith Park recalls L.A.’s favorite big cat, P-22</t>
+          <t>Orange County Fire Authority agrees to $580,000 settlement in lawsuit alleging gender discrimination</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-19/unconfirmed-sighting-of-mountain-lion-in-griffith-park-evokes-memories-and-majesty-of-las-favorite-cat-p-22</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>The National Park Service, which has reviewed video footage of the sighting, is taking the claim seriously, according to spokesperson Ana Beatriz Cholo.</t>
+          <t>The fire agency settles with former spokeswoman Colleen Windsor, whose lawsuit alleged that male colleagues systematically harassed and undermined her.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-05-19</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F78%2F78%2F216f6c8c4dd99ae89138a4093986%2Fmountainlion1.jpg</t>
-        </is>
+          <t>la-photos-1staff-la-1561072932-keq14h9qyz-snap-image.jpg</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Newsom leaves the Vatican with pope’s praise for refusing to impose the death penalty</t>
+          <t>Column: California wants to mandate folic acid in tortillas to help babies. Why that’s bad</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-19/newsom-walks-away-from-the-vatican-with-popes-approval-on-death-penalty</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>When they spoke at the Vatican, Pope Francis praised California Gov. Gavin Newsom’s decision to temporarily end the death penalty.</t>
+          <t>It was time for the Great Tortilla Folic Acid Test. The 3.5-ounce bag of folic acid powder was available on Amazon for $20. I washed out my mouth with water, closed my eyes and took two warm corn tortillas.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-05-19</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Ff2%2F5c%2Fcf50cf6041f6b7e19ee5c8bc192a%2Fvatican-climate-79865.jpg</t>
-        </is>
+          <t>1449177-me-0516-calif-tortillas-folic-acid-gem-003.jpg</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Behind the scenes, the search for the next L.A. City Council president is under way</t>
+          <t>UC seeks injunction to halt strike as academic workers threaten to expand walkouts</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/newsletter/2024-05-18/la-on-the-record-newsletter-marqueece-harris-dawson-builds-support-for-council-president-l-a-on-the-record</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>L.A. City Councilmember Marqueece Harris-Dawson said he’s been talking to his colleagues about “what they want in a president.” Some already support him</t>
+          <t>The legality of the ongoing strike by UC academic workers in support of pro-Palestinian demonstrators will go before the state labor board this week.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fb8%2F7e%2F9b1f318f437486069424b30d4c96%2F1312351-me-0620-harris-dawson-004-ik.jpg</t>
-        </is>
+          <t>ap24141817220802.jpg</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Explore the best of the West with these extraordinary experiences</t>
+          <t>How Kevin McCarthy is influencing the race for his former congressional seat</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/newsletter/2024-05-18/explore-the-best-of-the-west-with-these-extraordinary-experiences-essential-california</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>There’s something for everybody on the West Coast, but only if you know where to look. Our list of 101 best West Coast experiences can help you make the most of this coast.</t>
+          <t>How Kevin McCarthy is influencing this congressional race — without being on the ballot</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F87%2Fcc%2Ff8c607d544e2acfacaeac42f0a83%2Fwc101-101-list-lead-final-0000001.jpg</t>
-        </is>
+          <t>la-me-mike-boudreaux-vince-fong.jpg</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Supporters say ‘warmhearted’ alleged Mexican Mafia member deserves bail. Wiretaps reveal threats</t>
+          <t>Column: A meeting of Cal State L.A. student encampments, 55 years apart</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-18/johnny-martinez</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Prosecutors say Johnny Martinez was caught on a wiretap boasting of several murders, but he still has prominent voices calling for his release, including two L.A. County probation officials.</t>
+          <t>Fifty-five years ago, a student encampment stood on the very spot at Cal State L.A. where pro-Palestinian students have set up tents now. Their asks were different, their spirits the same.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F2e%2F9c%2F12eca9704f54ad2640eba98d796a%2Fjohnny-martinez-1.jpg</t>
-        </is>
+          <t>1449652-me-cal-state-la-encampment-03-mjc.jpg</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>California pays meth users up to $599 a year to get sober</t>
+          <t>Pro-Palestinian protesters move UC Santa Cruz encampment, join striking workers</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-18/california-pays-meth-users-up-to-599-a-year-to-get-sober</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>California’s Medicaid program is testing a novel approach for people addicted to methamphetamine, cocaine and other stimulants: For every clean urine test, they can earn money — up to $599 a year.</t>
+          <t>Protesters relocated their days-old encampment — including tents and sleeping bags — to the entrance of the university to be closer to striking academic workers.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F01%2Fcb%2F98b6231c4ffba3772841611b14fa%2Fla-me-coburn-02.jpeg</t>
-        </is>
+          <t>gettyimages-2153876773.jpg</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>California school district becomes first in nation to go all electric buses</t>
+          <t>He came to L.A. 3 months ago with his young family. A ride on a Metro bus led to his death</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-18/oakland-unified-switches-to-all-electric-buses</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Oakland Unified announced Thursday that it is the first school district in the nation to use a fully electric bus fleet.</t>
+          <t>A Metro bus passenger was killed in Commerce last week, three months after he arrived in the U.S. It’s the second fatal attack on the system in a month.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F6a%2Fe6%2Fa7e27a2441dc9b7eda4a9a9448c7%2Fzum-0458-highres.jpg</t>
-        </is>
+          <t>1450408-me-0518-family-of-the-tourist-killed-on-a-metro-bus-speaks-out-gem-003.jpg</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Teachers criticize Newsom’s budget proposal, saying it would ‘wreak havoc on funding for our schools’</t>
+          <t>Judge reopens Paul Pelosi attacker sentencing after making ‘clear error’</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-17/teachers-criticize-newsom-budget-proposal-wreak-havoc-funding-for-schools-prop-98</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>California’s largest teachers union is looking to block part of the governor’s plan to balance the budget, saying it ‘would wreak havoc’ on school funding.</t>
+          <t>The judge who sentenced David DePape in the attack of Paul Pelosi said she failed to give DePape an opportunity to speak before sentencing. It probably won’t change the jail sentence.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fea%2Fd9%2F756b013c5da4bbcd5d17657edbb4%2Fd001932dfdde4d2ebca6005261c029bc</t>
-        </is>
+          <t>15ab4439177c4d6c826476c4c63c9ee7.jpg</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ex-congressman from Fresno expected to take plea deal in federal fraud case</t>
+          <t>Why is a stuffed burro facing eviction from Olvera Street?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-17/la-me-former-congressman-cox-plea-deal-federal-fraud-case</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>T.J. Cox is finalizing a plea deal in a sweeping federal case in which he is accused of campaign contribution fraud and stealing from his own companies.</t>
+          <t>For 52 years, Jorge has never turned down a photo opportunity. Now, the stuffed donkey faces eviction from Olvera Street.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F50%2Fc6%2Fa6d98f4b4e60b4a6d3f4275837b8%2Fap20275120939354.jpg</t>
-        </is>
+          <t>1444800-me-cinco-de-mayo-olvera-street-jja-0003.jpg</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>David DePape sentenced to 30 years in attempted Nancy Pelosi kidnapping, hammer attack on husband</t>
+          <t>UC academic workers’ strike begins as pro-Palestinian activism enters new phase</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-17/depape-sentenced-30-years-paul-pelosi-hammer-attack</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The sentencing caps a federal trial that raised chilling questions about the safety of public officials amid heightened political extremism and the proliferation of online platforms that give traction to baseless conspiracy theories.</t>
+          <t>Academic workers walk out to support participants in the pro-Palestinian protests. UC officials call the strike illegal. It could spread to other campuses.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F52%2F54%2F9509e8177f3aa059f69d761b1311%2F15ab4439177c4d6c826476c4c63c9ee7</t>
-        </is>
+          <t>gettyimages-2153876794.jpg</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Santa Ana mother charged with beating infant, breaking 16 bones</t>
+          <t>The magical California state park that doesn’t allow visitors</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-17/santa-ana-mother-charged-with-beating-infant-breaking-16-bones</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Santa Ana parents are facing years in prison if convicted of child abuse that left their 5-week-old infant with broken bones.</t>
+          <t>For the last two decades, the Sutter Buttes have been home to a California state park that almost no one is allowed to visit.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Feb%2Fa8%2F54e028874b69918b2438beceabfa%2F960616-church-shooting-presser-13-ajs.jpg</t>
-        </is>
+          <t>sutter-buttes-state-park05.JPG</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UC officials charge that academic workers’ strike over pro-Palestinian protests is illegal</t>
+          <t>Unconfirmed sighting of mountain lion near Griffith Park recalls L.A.’s favorite big cat, P-22</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-17/uc-academic-student-workers-santa-cruz-strike</t>
+          <t>2024-05-19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The union representing UC academic workers said Friday that its members at UC Santa Cruz would go on strike Monday over alleged worker rights and free speech violations.</t>
+          <t>The National Park Service, which has reviewed video footage of the sighting, is taking the claim seriously, according to spokesperson Ana Beatriz Cholo.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F51%2F97%2Ffab73e8e424b928ca43664e334f9%2F1216850-me-1115-academic-workers-strike-011-ik.jpg</t>
-        </is>
+          <t>mountainlion1.jpg</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A policing surge is coming to L.A. Metro. Critics call it more of the ‘same failed solution’</t>
+          <t>Newsom leaves the Vatican with pope’s praise for refusing to impose the death penalty</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/newsletter/2024-05-17/a-law-enforcement-surge-is-coming-to-l-a-metro-critics-call-it-more-of-a-failed-solution-essential-california</t>
+          <t>2024-05-19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Transit advocates say the law enforcement agencies that Metro pays to patrol its system did not prevent a recent spate of violent attacks. They say investing more in social outreach will bring real improvements.</t>
+          <t>When they spoke at the Vatican, Pope Francis praised California Gov. Gavin Newsom’s decision to temporarily end the death penalty.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F00%2F52%2F690e3d2d4c0da272e3670dbb7506%2F1448520-me-0515-violence-metro-rail-wjs020.jpg</t>
-        </is>
+          <t>vatican-climate-79865.jpg</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LA Times Today: Patt Says: San Francisco sues Oakland over proposed airport name change</t>
+          <t>Behind the scenes, the search for the next L.A. City Council president is under way</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/0000018f-8416-d7b9-a9bf-ff3fe7330000-123</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Watch L.A.</t>
+          <t>L.A. City Councilmember Marqueece Harris-Dawson said he’s been talking to his colleagues about “what they want in a president.” Some already support him</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fa8%2Fbf%2Fbb15dfca467a9a285e0339efa0f1%2Fpatt-says-oakland-airport-latt.png</t>
-        </is>
+          <t>1312351-me-0620-harris-dawson-004-ik.jpg</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>At Homeboy, the scoop on Father Greg and his latest honor, from those who know him best</t>
+          <t>Explore the best of the West with these extraordinary experiences</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-17/lopez-column-homeboy-father-greg-boyle-presidential-medal-of-freedom</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>It’s about time, former gang members say of Homeboy Industries’ Father Greg Boyle being awarded the Presidential Medal of Freedom.</t>
+          <t>There’s something for everybody on the West Coast, but only if you know where to look. Our list of 101 best West Coast experiences can help you make the most of this coast.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F48%2F70%2Fa5ee2e6a4b42a566a8afd3f06b50%2F1449113-me-0517-homeboy-march-to-city-hall-003.jpg</t>
-        </is>
+          <t>wc101-101-list-lead-final-0000001.jpg</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>She couldn’t call, so human-trafficking victim texted 911 — and saved herself, officials say</t>
+          <t>Supporters say ‘warmhearted’ alleged Mexican Mafia member deserves bail. Wiretaps reveal threats</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-17/human-trafficking-victim-texted-911-saved-herself</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The Ventura County Sheriff’s Office said a teenager began texting 911 with ‘pleas for help’ around 3 a.m. on May 9.</t>
+          <t>Prosecutors say Johnny Martinez was caught on a wiretap boasting of several murders, but he still has prominent voices calling for his release, including two L.A. County probation officials.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fef%2F12%2Facc1c82349d2ad015709fbe0e3e3%2Fla-photos-1staff-573894-la-me-missing-lake-piru-46-als-1.jpg</t>
-        </is>
+          <t>johnny-martinez-1.jpg</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Judge finds potential conflict with lawyer representing Rebecca Grossman and prosecutor, but resolves issue with waiver</t>
+          <t>California pays meth users up to $599 a year to get sober</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-17/rebecca-grossmans-lawyer-is-center-of-conflict-of-interest-motion-by-prosecutors</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A motion by the prosecution sought to either remove the convicted murderer’s new lead attorney or have her formally waive a conflict of interest. She agreed to the latter.</t>
+          <t>California’s Medicaid program is testing a novel approach for people addicted to methamphetamine, cocaine and other stimulants: For every clean urine test, they can earn money — up to $599 a year.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F55%2F9e%2F63f9e92045f7870018de5cf152bf%2F1410675-me-0214-rebecca-grossman-trial-002-ik.jpg</t>
-        </is>
+          <t>la-me-coburn-02.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>L.A.’s accidental homelessness ‘czar’? U.S. District Judge David O. Carter</t>
+          <t>California school district becomes first in nation to go all electric buses</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-17/its-often-been-said-that-l-a-needs-a-homelessness-czar-now-it-has-one-a-federal-judge</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Two federal lawsuits challenging the homelessness practices of Los Angeles city and county and the U.S. government have allowed U.S. District Judge David O. Carter to assume powers that make him as close as it gets to the ever wished-for homelessness czar.</t>
+          <t>Oakland Unified announced Thursday that it is the first school district in the nation to use a fully electric bus fleet.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F2e%2Ff1%2Ff4a098d14df4a59364a6f3c941dc%2F1354620-me-0929-judge-carter-tours-skid-row-gem-010.jpg</t>
-        </is>
+          <t>zum-0458-highres.jpg</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Protester gets $1.5-million settlement over testicle injury caused by LAPD projectile</t>
+          <t>Teachers criticize Newsom’s budget proposal, saying it would ‘wreak havoc on funding for our schools’</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-17/protester-injured-by-lapd-projectile-2020-settlement</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A protester whose testicle exploded when an LAPD officer shot him with a hard-foam projectile during a street demonstration in 2020 has received a $1.5-million settlement from the city.</t>
+          <t>California’s largest teachers union is looking to block part of the governor’s plan to balance the budget, saying it ‘would wreak havoc’ on school funding.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F88%2F33%2F4d46f82b4909855695fbae88785e%2Fla-me-montemayor-video.jpg</t>
-        </is>
+          <t>d001932dfdde4d2ebca6005261c029bc.jpg</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LAUSD police deployment to 20 schools collapses after one day amid opposition, confusion</t>
+          <t>Ex-congressman from Fresno expected to take plea deal in federal fraud case</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-17/lausd-returns-school-police-to-20-campuses-then-walks-back-part-of-plan-after-pushback</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>L.A. school board members say they did not know in advance of a police deployment to 20 troubled campuses -- and some are unhappy about it.</t>
+          <t>T.J. Cox is finalizing a plea deal in a sweeping federal case in which he is accused of campaign contribution fraud and stealing from his own companies.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F61%2Fdf%2F53916ef54536aecf904b58a9ffc5%2F928280-me-fight-at-crenshaw-high-school001-ls.jpg</t>
-        </is>
+          <t>ap20275120939354.jpg</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mayor Bass orders police ‘surge’ on Metro bus and rail routes amid spike in violence</t>
+          <t>David DePape sentenced to 30 years in attempted Nancy Pelosi kidnapping, hammer attack on husband</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-16/mayor-bass</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Amid a spike in violence on trains and buses, Mayor Karen Bass calls in more police patrols. The fatal stabbing of a 66-year-old subway rider put the transit agency on edge last month, as pressure grew to respond.</t>
+          <t>The sentencing caps a federal trial that raised chilling questions about the safety of public officials amid heightened political extremism and the proliferation of online platforms that give traction to baseless conspiracy theories.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F65%2Fdb%2F9722d1284286a4db0597702ab568%2F1448520-me-0515-violence-metro-rail-wjs001.jpg</t>
-        </is>
+          <t>15ab4439177c4d6c826476c4c63c9ee7.jpg</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Why having accessible data is important. Here’s how we dived into statistics to understand AAPI communities in Southern California</t>
+          <t>Santa Ana mother charged with beating infant, breaking 16 bones</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-16/why-having-accessible-data-is-important-heres-how-we-dived-into-statistics-to-understand-aapi-communities-in-southern-california</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Driven in part by lived experience as two first-generation Asian Americans who grew up in large AAPI communities, Times journalists turned to Census data to quantify the size and ethnic diversity of the fastest-growing demographic in the United States.</t>
+          <t>Santa Ana parents are facing years in prison if convicted of child abuse that left their 5-week-old infant with broken bones.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F05%2F7d%2F88df91584a858a70a298c1a2e561%2F1393421-me-little-tokyo-evolution-4-brv.jpg</t>
-        </is>
+          <t>960616-church-shooting-presser-13-ajs.jpg</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LA Times Today: A young actress, an obsessed stalker and a Hollywood murder that changed America</t>
+          <t>UC officials charge that academic workers’ strike over pro-Palestinian protests is illegal</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/0000018f-7e7d-dfd5-afaf-7f7f17860001-123</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Watch L.A.</t>
+          <t>The union representing UC academic workers said Friday that its members at UC Santa Cruz would go on strike Monday over alleged worker rights and free speech violations.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F3d%2F89%2F0a1f204f4c88a56f7e68170c2623%2Fcriminal-record-rebecca-shaeffer-latt.png</t>
-        </is>
+          <t>1216850-me-1115-academic-workers-strike-011-ik.jpg</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Why your electricity bill might go up as early as next year</t>
+          <t>A policing surge is coming to L.A. Metro. Critics call it more of the ‘same failed solution’</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/newsletter/2024-05-16/why-your-electricity-bill-might-go-up-as-early-as-next-year-essential-california</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>With little public debate, state lawmakers passed a complex energy bill that upended how most Californians are billed for electricity.</t>
+          <t>Transit advocates say the law enforcement agencies that Metro pays to patrol its system did not prevent a recent spate of violent attacks. They say investing more in social outreach will bring real improvements.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F94%2F27%2F452914948b3c08bbf9bf8824dca8%2F801696d2040247888997956104a12a64</t>
-        </is>
+          <t>1448520-me-0515-violence-metro-rail-wjs020.jpg</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gavin Newsom, during his speech at the Vatican on climate change, accuses Trump of ‘open corruption’</t>
+          <t>LA Times Today: Patt Says: San Francisco sues Oakland over proposed airport name change</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-16/newsom-california-vatican-speech-pope</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Gov. Gavin Newsom called out former President Trump’s efforts to roll back climate change policies on a world stage during a climate summit at the Vatican.</t>
+          <t>Watch L.A.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F37%2Faa%2F775572674c7eaca19063f4b32d71%2Fvatican-climate-33710.jpg</t>
-        </is>
+          <t>patt-says-oakland-airport-latt.png</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>California is changing how big power companies charge for electricity. What to expect on your bill</t>
+          <t>At Homeboy, the scoop on Father Greg and his latest honor, from those who know him best</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-16/california-is-changing-electricity-billing-what-to-expect</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>State regulators have decided to let investor-owned utilities impose a new flat fee on your electric bill and decrease the usage charges. But customers who typically use less energy might see an increase in their bill.</t>
+          <t>It’s about time, former gang members say of Homeboy Industries’ Father Greg Boyle being awarded the Presidential Medal of Freedom.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F51%2Fb3%2Fdd15c9d5437781b3740c97d26cf5%2F1343055-me-0926-rural-electric-school-bus-020-iok.jpg</t>
-        </is>
+          <t>1449113-me-0517-homeboy-march-to-city-hall-003.jpg</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>‘Maximize chaos.’ UC academic workers authorize strike, alleging rights violated during protests</t>
+          <t>She couldn’t call, so human-trafficking victim texted 911 — and saved herself, officials say</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-15/uc-academic-workers-strike-vote</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>United Auto Workers Local 4811, which represents 48,000 student workers in the University of California system, authorized a strike alleging their workers’ rights were violated in actions against pro-Palestinian protests.</t>
+          <t>The Ventura County Sheriff’s Office said a teenager began texting 911 with ‘pleas for help’ around 3 a.m. on May 9.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fd2%2F17%2F63db997348d795163fd4ca0fb4ff%2F1216225-me-uc-academic-workers-strike01-ch.JPG</t>
-        </is>
+          <t>la-photos-1staff-573894-la-me-missing-lake-piru-46-als-1.jpg</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Moorpark professor to stand trial in bludgeoning death of pro-Israeli counterprotester Paul Kessler</t>
+          <t>Judge finds potential conflict with lawyer representing Rebecca Grossman and prosecutor, but resolves issue with waiver</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-15/moorpark-man-to-stand-trial-for-death-of-israeli-counter-protester</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>There is enough evidence for a trial against Moorpark’s Loay Abdel Fattah Alnaji, a judge ruled. He is charged with involuntary manslaughter in the death of Paul Kessler at a protest.</t>
+          <t>A motion by the prosecution sought to either remove the convicted murderer’s new lead attorney or have her formally waive a conflict of interest. She agreed to the latter.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F6a%2Fa3%2F633f98cb48529446a3e7f426ad54%2F1371808-me-1107-israel-hamas-protest3-wjs.jpg</t>
-        </is>
+          <t>1410675-me-0214-rebecca-grossman-trial-002-ik.jpg</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Downey will stop flying Pride flag. Some call it ‘a step backward for our city’</t>
+          <t>L.A.’s accidental homelessness ‘czar’? U.S. District Judge David O. Carter</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-15/downey-reverses-policy-on-flying-pride-flag-critics-call-it-a-step-backwards-for-our-city</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Downey’s City Council voted 3 to 2 to approve a neutral flag policy in the city, reversing a previous policy that allowed for the flying of other flags, including the LGBTQ+ Pride flag.</t>
+          <t>Two federal lawsuits challenging the homelessness practices of Los Angeles city and county and the U.S. government have allowed U.S. District Judge David O. Carter to assume powers that make him as close as it gets to the ever wished-for homelessness czar.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F81%2F7f%2Fb0f06179498aa982efe81d3f8cf3%2F1304483-me-pride-flag-event-gxc-0837.jpg</t>
-        </is>
+          <t>1354620-me-0929-judge-carter-tours-skid-row-gem-010.jpg</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sen. Bernie Sanders endorses 2 California ballot measures, including rent control expansion</t>
+          <t>Protester gets $1.5-million settlement over testicle injury caused by LAPD projectile</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-15/sen-bernie-sanders-endorses-two-statewide-ballot-measures</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sen. Bernie Sanders of Vermont is throwing his support behind two California ballot measures related to rent control and restrictions on oil drilling.</t>
+          <t>A protester whose testicle exploded when an LAPD officer shot him with a hard-foam projectile during a street demonstration in 2020 has received a $1.5-million settlement from the city.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F6f%2Fa6%2Fd5bf3b4f4ff097d5246da2f6d00b%2Fla-photos-wap-bernie-sanders.JPG</t>
-        </is>
+          <t>la-me-montemayor-video.jpg</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Project Roomkey was meant to ‘protect human life.’ A new report tracks its performance</t>
+          <t>LAUSD police deployment to 20 schools collapses after one day amid opposition, confusion</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/newsletter/2024-05-15/project-roomkey-was-meant-to-protect-human-life-a-new-report-tracks-its-performance-essential-california</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Limited data and low rates of connections to permanent housing show progress on the homelessness crisis remains a steep battle.</t>
+          <t>L.A. school board members say they did not know in advance of a police deployment to 20 troubled campuses -- and some are unhappy about it.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fd8%2Fc3%2Fed89d493451a98b57be1d64d4cb3%2Fla-photos-1staff-570857-me-0708-homeless-freeways-gem-028.jpg</t>
-        </is>
+          <t>928280-me-fight-at-crenshaw-high-school001-ls.jpg</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Column: L.A.’s only Spanish-language children’s bookstore will soon get más grande</t>
+          <t>Mayor Bass orders police ‘surge’ on Metro bus and rail routes amid spike in violence</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-15/la-libreria-bilingual-bookstore</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cool stuff was everywhere I looked. A compendium of Latin American folk tales. A young-adult version of radio legend Maria Hinojosa’s memoir. Picture books teaching Spanish speakers words in Nahuatl and Maya.</t>
+          <t>Amid a spike in violence on trains and buses, Mayor Karen Bass calls in more police patrols. The fatal stabbing of a 66-year-old subway rider put the transit agency on edge last month, as pressure grew to respond.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F74%2F56%2Fd9fee18948d1ad20c0ba1fb7ea35%2F1443567-me-bi-lingual-bookstore33-el.jpg</t>
-        </is>
+          <t>1448520-me-0515-violence-metro-rail-wjs001.jpg</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>L.A.’s dirtiest cop: A mild-mannered traffic officer who moonlighted as a hit man</t>
+          <t>Why having accessible data is important. Here’s how we dived into statistics to understand AAPI communities in Southern California</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-15/criminal-record-the-crimes-of-william-leasure</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>William Leasure, killer cop, still denies the big crimes, the ones that put him in prison: orchestrating the contract murders of a beauty shop employee and a jazz bassist.</t>
+          <t>Driven in part by lived experience as two first-generation Asian Americans who grew up in large AAPI communities, Times journalists turned to Census data to quantify the size and ethnic diversity of the fastest-growing demographic in the United States.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fzbk%2Fdamlat_images%2FLA%2FLA_PHOTO_SELECTS%2F2016_05%2Fla-leasure6.JPG</t>
-        </is>
+          <t>1393421-me-little-tokyo-evolution-4-brv.jpg</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Climate change is central to both Pope Francis and Newsom. But do Catholic voters care?</t>
+          <t>LA Times Today: A young actress, an obsessed stalker and a Hollywood murder that changed America</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-15/newsom-pope-francis-vatican-climate-conference-catholic-voters</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Gov. Gavin Newsom is speaking at the Vatican at a climate conference that gives him and his party an opportunity to align with Pope Francis in a critical election year.</t>
+          <t>Watch L.A.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F97%2F2e%2Fd0b8fbf7487b90f1bde07ef61ab4%2F1426707-me-0322-stricter-oil-rules-rcg-5845.jpg</t>
-        </is>
+          <t>criminal-record-rebecca-shaeffer-latt.png</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Vietnamese groups furious over ‘Jane Fonda Day’ in L.A. County</t>
+          <t>Why your electricity bill might go up as early as next year</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-15/la-county-to-change-date-of-jane-fonda-day-after-backlash</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>The Board of Supervisors will consider moving Jane Fonda Day to April 8 instead of its original proposal of April 30, the day of the fall of Saigon in 1975.</t>
+          <t>With little public debate, state lawmakers passed a complex energy bill that upended how most Californians are billed for electricity.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F80%2Faa%2F2dec7e394dfb9f2d421c71e68450%2F1180893-me-0901-jane-fonda-endorsements-cmh-01.jpg</t>
-        </is>
+          <t>801696d2040247888997956104a12a64.jpg</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ethics reform measure will go to L.A. voters. Critics say it’s watered down</t>
+          <t>Gavin Newsom, during his speech at the Vatican on climate change, accuses Trump of ‘open corruption’</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-15/l-a-city-council-backs-ballot-measure-for-changes-to-ethics-commission</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Watchdog groups were deeply disappointed, saying the measure does not go far enough after the City Council watered down a proposal that had more sweeping changes.</t>
+          <t>Gov. Gavin Newsom called out former President Trump’s efforts to roll back climate change policies on a world stage during a climate summit at the Vatican.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F32%2F00%2F7b53432e447ba6949295c9c48cfb%2F1386291-me-1212-city-council-gem-012.jpg</t>
-        </is>
+          <t>vatican-climate-33710.jpg</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Woman makes history with shark-infested swim to remote California island</t>
+          <t>California is changing how big power companies charge for electricity. What to expect on your bill</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-15/california-woman-swims-san-francisco-to-farrallon-islands</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>On Saturday, Amy Appelhans Gubser became the first person, male or female, to swim from the Golden Gate Bridge to the Farallon Islands.</t>
+          <t>State regulators have decided to let investor-owned utilities impose a new flat fee on your electric bill and decrease the usage charges. But customers who typically use less energy might see an increase in their bill.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fc7%2F8b%2Fef329f76440ba272ed3c729ccf13%2Fgrandmother-swimfrom-san-francisco-to-the-farrallon-islands01.JPG</t>
-        </is>
+          <t>1343055-me-0926-rural-electric-school-bus-020-iok.jpg</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Buying a home in Southern California? There are now more options</t>
+          <t>‘Maximize chaos.’ UC academic workers authorize strike, alleging rights violated during protests</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-15/buying-a-home-in-southern-california-theres-suddenly-more-options</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>The number of homes in many corners of Southern California rose for the first time in more than a year, providing some relief to would-be buyers.</t>
+          <t>United Auto Workers Local 4811, which represents 48,000 student workers in the University of California system, authorized a strike alleging their workers’ rights were violated in actions against pro-Palestinian protests.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F0a%2F45%2F314988024a479f704c308172c19d%2F1199943-fi-home-prices-southland-36.jpg</t>
-        </is>
+          <t>1216225-me-uc-academic-workers-strike01-ch.JPG</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>UC Berkeley to consider divesting from weapons makers as pro-Palestinian protesters break camp</t>
+          <t>Moorpark professor to stand trial in bludgeoning death of pro-Israeli counterprotester Paul Kessler</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-14/uc-berkeley-protestors-dismantle-pro-palestinian-encampment</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pro-Palestinian protesters at UC Berkeley removed their encampment after talks with the university, which said it will consider their divestment demands.</t>
+          <t>There is enough evidence for a trial against Moorpark’s Loay Abdel Fattah Alnaji, a judge ruled. He is charged with involuntary manslaughter in the death of Paul Kessler at a protest.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fc9%2Fca%2Fd54d78a34e48b4bb6a34826dc1e0%2Fhttps-delivery-gettyimages.com%2Fdownloads%2F2149770857</t>
-        </is>
+          <t>1371808-me-1107-israel-hamas-protest3-wjs.jpg</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rebecca Grossman’s lawyers file motion for new trial, seek to overturn murder conviction</t>
+          <t>Downey will stop flying Pride flag. Some call it ‘a step backward for our city’</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-14/rebecca-grossmans-lawyer-files-motion-for-new-trial-seeks-to-overturn-murder-conviction</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>New attorneys for Rebecca Grossman say prosecutors failed to prove she acted with implied malice and that erroneous evidence was admitted in her trial.</t>
+          <t>Downey’s City Council voted 3 to 2 to approve a neutral flag policy in the city, reversing a previous policy that allowed for the flying of other flags, including the LGBTQ+ Pride flag.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fbd%2F62%2F9d0322e645b189ef325311bd3bb4%2F1410675-me-0214-rebecca-grossman-trial-005-ik.jpg</t>
-        </is>
+          <t>1304483-me-pride-flag-event-gxc-0837.jpg</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SpaceX plans to launch 90 rockets from Vandenberg Space Force Base by 2026. Could that harm the coast?</t>
+          <t>Sen. Bernie Sanders endorses 2 California ballot measures, including rent control expansion</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-14/spacex-to-launch-90-rockets-from-vandenberg-by-2026-coastal-impacts</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Elon Musk’s SpaceX plans to launch 90 rockets into space by 2026, but the California Coastal Commission is raising concerns about how marine life would be affected.</t>
+          <t>Sen. Bernie Sanders of Vermont is throwing his support behind two California ballot measures related to rent control and restrictions on oil drilling.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-05-19</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F4d%2Ff5%2F62a3d7d7415db8ee4e23d9f9dd04%2F1425252-me-rocket-launch-vandenberg-01-mjc.jpg</t>
-        </is>
+          <t>la-photos-wap-bernie-sanders.JPG</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Three people stabbed in two separate incidents on Metro system</t>
+          <t>Project Roomkey was meant to ‘protect human life.’ A new report tracks its performance</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-14/three-people-stabbed-on-los-angeles-county-metro-system-in-separate-incidents</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>All three are expected to survive, according to authorities. The attacks represent the latest violence on L.A. County’s mass transit system.</t>
+          <t>Limited data and low rates of connections to permanent housing show progress on the homelessness crisis remains a steep battle.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fab%2Ff4%2F526c72594ce386c603ef889a5adc%2Fla-vermont-athens-metro-train-station.jpg</t>
-        </is>
+          <t>la-photos-1staff-570857-me-0708-homeless-freeways-gem-028.jpg</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>California’s budget deficit has grown. Here’s how Gov. Newsom is responding</t>
+          <t>Column: L.A.’s only Spanish-language children’s bookstore will soon get más grande</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/newsletter/2024-05-14/california-budget-deficit-prompts-newsom-to-propose-cuts-essential-california</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gov. Gavin Newsom is proposing one-time or ongoing reductions for 260 government programs, including many that deal with affordable housing and climate change.</t>
+          <t>Cool stuff was everywhere I looked. A compendium of Latin American folk tales. A young-adult version of radio legend Maria Hinojosa’s memoir. Picture books teaching Spanish speakers words in Nahuatl and Maya.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F7a%2Ff1%2Fe53d6d3c4246b2d9c6ee32c6dba5%2Fap24131745004774.jpg</t>
-        </is>
+          <t>1443567-me-bi-lingual-bookstore33-el.jpg</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>$3.3 billion available for mental health beds as Newsom jump-starts Prop. 1 spending</t>
+          <t>L.A.’s dirtiest cop: A mild-mannered traffic officer who moonlighted as a hit man</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-14/california-3-3-billion-available-for-mental-health-beds</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Newsom announced that the state will make $3.3 billion in funding available by July to begin building mental health treatment centers.</t>
+          <t>William Leasure, killer cop, still denies the big crimes, the ones that put him in prison: orchestrating the contract murders of a beauty shop employee and a jazz bassist.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F9d%2F34%2Fac7bb8e9440e915aa0d708db0a2e%2F1393827-me-newsom-prop-1-mjc-003.jpg</t>
-        </is>
+          <t>la-leasure6.JPG</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LAUSD parents and teachers in uproar over timed academic testing for 4-year-olds</t>
+          <t>Climate change is central to both Pope Francis and Newsom. But do Catholic voters care?</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.latimes.com/california/story/2024-05-14/lausd-wants-transitional-kindergarteners-to-test-parents-uproar</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LAUSD is giving transitional kindergarteners a test meant for kindergarteners. Some worry the district’s unusual decision won’t accurately assess their skills.</t>
+          <t>Gov. Gavin Newsom is speaking at the Vatican at a climate conference that gives him and his party an opportunity to align with Pope Francis in a critical election year.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2F6e%2Fbe%2Fecfa076449038f9df8ce5a062e3b%2F1445877-me-standardized-tk-testing-mdb-tkprogramstandarizedtest03.jpg</t>
-        </is>
+          <t>1426707-me-0322-stricter-oil-rules-rcg-5845.jpg</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>Vietnamese groups furious over ‘Jane Fonda Day’ in L.A. County</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The Board of Supervisors will consider moving Jane Fonda Day to April 8 instead of its original proposal of April 30, the day of the fall of Saigon in 1975.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1180893-me-0901-jane-fonda-endorsements-cmh-01.jpg</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ethics reform measure will go to L.A. voters. Critics say it’s watered down</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Watchdog groups were deeply disappointed, saying the measure does not go far enough after the City Council watered down a proposal that had more sweeping changes.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1386291-me-1212-city-council-gem-012.jpg</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Woman makes history with shark-infested swim to remote California islands</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>On Saturday, Amy Appelhans Gubser became the first person, male or female, to swim from the Golden Gate Bridge to the Farallon Islands.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>grandmother-swimfrom-san-francisco-to-the-farrallon-islands01.JPG</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Buying a home in Southern California? There are now more options</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>The number of homes in many corners of Southern California rose for the first time in more than a year, providing some relief to would-be buyers.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1199943-fi-home-prices-southland-36.jpg</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>UC Berkeley to consider divesting from weapons makers as pro-Palestinian protesters break camp</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Pro-Palestinian protesters at UC Berkeley removed their encampment after talks with the university, which said it will consider their divestment demands.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2149770857.jpg</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Rebecca Grossman’s lawyers file motion for new trial, seek to overturn murder conviction</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>New attorneys for Rebecca Grossman say prosecutors failed to prove she acted with implied malice and that erroneous evidence was admitted in her trial.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1410675-me-0214-rebecca-grossman-trial-005-ik.jpg</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SpaceX plans to launch 90 rockets from Vandenberg Space Force Base by 2026. Could that harm the coast?</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Elon Musk’s SpaceX plans to launch 90 rockets into space by 2026, but the California Coastal Commission is raising concerns about how marine life would be affected.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1425252-me-rocket-launch-vandenberg-01-mjc.jpg</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Three people stabbed in two separate incidents on Metro system</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>All three are expected to survive, according to authorities. The attacks represent the latest violence on L.A. County’s mass transit system.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>la-vermont-athens-metro-train-station.jpg</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>California’s budget deficit has grown. Here’s how Gov. Newsom is responding</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Gov. Gavin Newsom is proposing one-time or ongoing reductions for 260 government programs, including many that deal with affordable housing and climate change.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ap24131745004774.jpg</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>$3.3 billion available for mental health beds as Newsom jump-starts Prop. 1 spending</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Newsom announced that the state will make $3.3 billion in funding available by July to begin building mental health treatment centers.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1393827-me-newsom-prop-1-mjc-003.jpg</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>LAUSD parents and teachers in uproar over timed academic testing for 4-year-olds</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>LAUSD is giving transitional kindergarteners a test meant for kindergarteners. Some worry the district’s unusual decision won’t accurately assess their skills.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1445877-me-standardized-tk-testing-mdb-tkprogramstandarizedtest03.jpg</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
           <t>California exodus left a gaping population hole. Can the Golden State finally bounce back?</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>https://www.latimes.com/california/story/2024-05-14/california-exodus-left-a-gaping-population-hole</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>More than half of California’s counties have populations lower than they were in 2019, according to data from the state Department of Finance. The state has yet to recover from the exodus.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fd7%2F75%2F83efa0264e869ef6db8805839d18%2F1409462-me-0213-struggling-offices-dtla-004-ik.jpg</t>
-        </is>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1409462-me-0213-struggling-offices-dtla-004-ik.jpg</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/scraped_news.xlsx
+++ b/scraped_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move over, poppies. Roses are having a moment in Southern California</t>
+          <t>Mike Tyson ‘doing great’ after medical emergency on flight to L.A.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-05-25</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>California’s state flower, the poppy, isn’t having a superbloom this year. Right now the rose is having a moment.</t>
+          <t>The 57-year-old former heavyweight champion has been preparing to fight YouTuber Jake Paul.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>la-wk-best-rose-gardens-expopark-markovitz-11.jpg</t>
+          <t>1321170-la-sp-2023-espy-awards-126-ajs.jpg</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -496,26 +496,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Column: In the land of giant sequoias, the largest tree in the world gets a checkup</t>
+          <t>Column: Unaffordable homeowner’s insurance is leaving Californians exposed to the elements</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-05-25</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>General Sherman appears to be holding up well (not bad for a 2,200-year-old), but because of pests and climate change, the largest tree in the world needs a checkup</t>
+          <t>Hundreds of thousands of Californians have been abandoned by their property insurers because they live in risky fire-prone areas.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1448546-me-0521-lopez-general-sherman-tree-gem-001.jpg</t>
+          <t>la-photos-1staff-640078-me-1027-oc-wildfires-013.IK.JPG</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -524,22 +524,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Riverside woman who bombarded Jewish family with ‘hate-filled’ phone calls sentenced to prison</t>
+          <t>Looking for the best in Los Angeles cookies? We’ve got you covered</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Melanie Harris was sentenced to 32 months in prison for bombarding the former executive director of Pittsburgh’s Tree of Life synagogue with phone calls and antisemitic messages.</t>
+          <t>Cookies are enjoying a renaissance in Los Angeles as the city is flush with standout bakeries ready to satisfy every type of craving.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pittsburgh-synagogue-shooting-memorial-99700.jpg</t>
+          <t>1445235-fo-big-cookie-poi-cover-3058.jpg</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -552,22 +552,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Marqueece Harris-Dawson secures enough support to become the next L.A. City Council president</t>
+          <t>Move over, poppies. Roses are having a moment in Southern California</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The proposal would trigger a vote on the council presidency on Tuesday. If approved, Harris-Dawson would fill the council’s top leadership post on Sept. 20.</t>
+          <t>California’s state flower, the poppy, isn’t having a superbloom this year. Right now the rose is having a moment.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1394812-me-cd8-voter-guide-marqueece-harris-dawson-06-mjc.jpg</t>
+          <t>la-wk-best-rose-gardens-expopark-markovitz-11.jpg</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -580,26 +580,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Skip the DMV visit. You can now complete these services online</t>
+          <t>Column: In the land of giant sequoias, the largest tree in the world gets a checkup</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The DMV is expanding its online services so you don’t have to visit your local DMV office.</t>
+          <t>General Sherman appears to be holding up well (not bad for a 2,200-year-old), but because of pests and climate change, the largest tree in the world needs a checkup</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>la-photos-1staff-588832-me-0813-dmv-coronavirus-012.IK.JPG</t>
+          <t>1448546-me-0521-lopez-general-sherman-tree-gem-001.jpg</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -608,7 +608,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional testimony, encampments and labor action: What to know about UC campus turmoil</t>
+          <t>Riverside woman who bombarded Jewish family with ‘hate-filled’ phone calls sentenced to prison</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -618,12 +618,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UC officials are contending with ongoing Gaza war protests, the fallout of violence at UCLA — and now a UC Santa Cruz labor strike that could soon spread.</t>
+          <t>Melanie Harris was sentenced to 32 months in prison for bombarding the former executive director of Pittsburgh’s Tree of Life synagogue with phone calls and antisemitic messages.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1452478-me-0523-new-ucla-encampment-cmh-20.jpg</t>
+          <t>pittsburgh-synagogue-shooting-memorial-99700.jpg</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -636,7 +636,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Patt Morrison: California settled no-fault divorce decades ago. Why is it back in the news?</t>
+          <t>Marqueece Harris-Dawson secures enough support to become the next L.A. City Council president</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>California was the first state to enact no-fault divorce. Why is it back in the news?</t>
+          <t>The proposal would trigger a vote on the council presidency on Tuesday. If approved, Harris-Dawson would fill the council’s top leadership post on Sept. 20.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>wyman-reagan-1942.jpeg.jpg</t>
+          <t>1394812-me-cd8-voter-guide-marqueece-harris-dawson-06-mjc.jpg</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -664,7 +664,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>There is a new deadline to get the Real ID. Here’s why you need one</t>
+          <t>Skip the DMV visit. You can now complete these services online</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -674,12 +674,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The deadline to get the Real ID is May 2025. The new form of identification isn’t required but it is needed to board domestic flights and enter certain federal buildings.</t>
+          <t>The DMV is expanding its online services so you don’t have to visit your local DMV office.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>real-id.jpg</t>
+          <t>la-photos-1staff-588832-me-0813-dmv-coronavirus-012.IK.JPG</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -692,7 +692,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LAUSD caves to public outcry: No more timed testing for 4-year-olds</t>
+          <t>Congressional testimony, encampments and labor action: What to know about UC campus turmoil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LAUSD has made transitional kindergarten testing optional after months of complaints from teachers and parents, who say it’s inappropriate for preschool-age kids.</t>
+          <t>UC officials are contending with ongoing Gaza war protests, the fallout of violence at UCLA — and now a UC Santa Cruz labor strike that could soon spread.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1334386-me-lausd-first-day-020-als.jpg</t>
+          <t>1452478-me-0523-new-ucla-encampment-cmh-20.jpg</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -720,7 +720,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Looking to vacation on the California coast? Marin County just made it harder</t>
+          <t>Patt Morrison: California settled no-fault divorce decades ago. Why is it back in the news?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -730,12 +730,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marin County, with its rugged beaches and pristine lands, has put a hard cap on short-term rentals, setting off furious debate: Are vacation rentals ruining California’s coastal towns? Or opening up the coast to people who can’t afford to live there?</t>
+          <t>California was the first state to enact no-fault divorce. Why is it back in the news?</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1438387-me-0424-dillon-beach-vacation-rentals-gem-001.jpg</t>
+          <t>wyman-reagan-1942.jpeg.jpg</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -748,22 +748,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L.A. City Council approves Mayor Karen Bass’ budget, cutting 1,700 vacant positions</t>
+          <t>There is a new deadline to get the Real ID. Here’s why you need one</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Councilmembers Hugo Soto-Martínez, Eunisses Hernandez and Nithya Raman voted no, voicing alarm at the reductions.</t>
+          <t>The deadline to get the Real ID is May 2025. The new form of identification isn’t required but it is needed to board domestic flights and enter certain federal buildings.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1229284-me-city-council-meeting-48-brv.jpg</t>
+          <t>real-id.jpg</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -776,22 +776,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Amid allegations against Sean ‘Diddy’ Combs, lawmaker wants to expand domestic abuse prosecutions</t>
+          <t>LAUSD caves to public outcry: No more timed testing for 4-year-olds</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>California state Sen. Susan Rubio has introduced legislation to increase the statute of limitations on domestic abuse cases.</t>
+          <t>LAUSD has made transitional kindergarten testing optional after months of complaints from teachers and parents, who say it’s inappropriate for preschool-age kids.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>la-photos-1staff-20190912-sacramentopol-robertgourley-905.jpg</t>
+          <t>1334386-me-lausd-first-day-020-als.jpg</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -804,22 +804,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Will these drones ‘revolutionize’ 911 response? L.A. suburb will be first to test</t>
+          <t>Looking to vacation on the California coast? Marin County just made it harder</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Several Southern California law enforcement agencies use drones in a variety of scenarios including hostage situations, missing persons and 911 response.</t>
+          <t>Marin County, with its rugged beaches and pristine lands, has put a hard cap on short-term rentals, setting off furious debate: Are vacation rentals ruining California’s coastal towns? Or opening up the coast to people who can’t afford to live there?</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1446369-me-0509-hawthorne-drone-wjs006.jpg</t>
+          <t>1438387-me-0424-dillon-beach-vacation-rentals-gem-001.jpg</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -832,7 +832,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LA Times Today: California farmers are low on water. Why not help them go solar?</t>
+          <t>L.A. City Council approves Mayor Karen Bass’ budget, cutting 1,700 vacant positions</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -842,12 +842,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Watch L.A.</t>
+          <t>Councilmembers Hugo Soto-Martínez, Eunisses Hernandez and Nithya Raman voted no, voicing alarm at the reductions.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>crops-to-solar-latt.png</t>
+          <t>1229284-me-city-council-meeting-48-brv.jpg</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -860,7 +860,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LA Times Today: Joshua Tree’s celebrity rattlesnake wrangler wants to change how you see reptiles</t>
+          <t>Amid allegations against Sean ‘Diddy’ Combs, lawmaker wants to expand domestic abuse prosecutions</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Watch L.A.</t>
+          <t>California state Sen. Susan Rubio has introduced legislation to increase the statute of limitations on domestic abuse cases.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rattlesnake-wrangler-latt.png</t>
+          <t>la-photos-1staff-20190912-sacramentopol-robertgourley-905.jpg</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -888,7 +888,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>L.A. has always been a restaurant town. Now restaurants are in trouble</t>
+          <t>Will these drones ‘revolutionize’ 911 response? L.A. suburb will be first to test</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>By the end of 2023, at least 65 notable restaurants had shut down in L.A. What does this mean for a city that wouldn’t be complete without its robust restaurant scene?</t>
+          <t>Several Southern California law enforcement agencies use drones in a variety of scenarios including hostage situations, missing persons and 911 response.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>fo-quick-bites-20220912-002.jpg</t>
+          <t>1446369-me-0509-hawthorne-drone-wjs006.jpg</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -916,7 +916,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hijacked: A renter turned L.A. home into an illegal Airbnb from 5,000 miles away, lawsuit says</t>
+          <t>LA Times Today: California farmers are low on water. Why not help them go solar?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>For the last year, Nikeeta Sriram says she has watched helplessly as her tenant turned her L.A. home into a lucrative Airbnb against her will.</t>
+          <t>Watch L.A.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1450292-me-hijacked-home-airbnb-1-brv.jpg</t>
+          <t>crops-to-solar-latt.png</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -944,7 +944,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>California could boot thousands of immigrants from program that aids elderly and disabled</t>
+          <t>LA Times Today: Joshua Tree’s celebrity rattlesnake wrangler wants to change how you see reptiles</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -954,12 +954,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>As budget cuts squeeze the state, California could yank help from unauthorized immigrants who are elderly, blind or otherwise disabled who rely on a program.</t>
+          <t>Watch L.A.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>la-photos-1staff-525460-la-me-home-health-care-worker-12-als.jpg</t>
+          <t>rattlesnake-wrangler-latt.png</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -972,7 +972,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Newsom turns to suburban moms to bankroll Arizona abortion plan</t>
+          <t>L.A. has always been a restaurant town. Now restaurants are in trouble</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Red Wine &amp; Blue, a political grassroots organization focused on suburban women, is funding a plan to expand abortion access</t>
+          <t>By the end of 2023, at least 65 notable restaurants had shut down in L.A. What does this mean for a city that wouldn’t be complete without its robust restaurant scene?</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>la-na-red-wine-blue-001.jpg</t>
+          <t>fo-quick-bites-20220912-002.jpg</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1000,22 +1000,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>California bill aims to end school gender notification policies — and protect teachers</t>
+          <t>Hijacked: A renter turned L.A. home into an illegal Airbnb from 5,000 miles away, lawsuit says</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>The legislation is the latest attempt by Democrats to crack down on policies that require educators to notify parents whose children use a different gender at school.</t>
+          <t>For the last year, Nikeeta Sriram says she has watched helplessly as her tenant turned her L.A. home into a lucrative Airbnb against her will.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1344937-me-orange-district-gender-id09-rc.jpg</t>
+          <t>1450292-me-hijacked-home-airbnb-1-brv.jpg</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1028,22 +1028,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>New cars in California could alert drivers for breaking the speed limit</t>
+          <t>California could boot thousands of immigrants from program that aids elderly and disabled</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A bill before California lawmakers would require new cars sold in the state in coming years to beep a warning whenever drivers exceed the speed limit by 10 mph</t>
+          <t>As budget cuts squeeze the state, California could cut off help to unauthorized immigrants who are elderly, blind or otherwise disabled who rely on a program.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>aea8dbc93a484ddbb5ee028eed6d3261.jpg</t>
+          <t>la-photos-1staff-525460-la-me-home-health-care-worker-12-als.jpg</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1056,22 +1056,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>(un)Welcome to the state park with no official name — or a way in</t>
+          <t>Newsom turns to suburban moms to bankroll Arizona abortion plan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>State officials bought land in the Sutter Buttes over two decades ago, thinking that neighboring landowners would work with them to facilitate public access. They thought wrong.</t>
+          <t>Red Wine &amp; Blue, a political grassroots organization focused on suburban women, is funding a plan to expand abortion access</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>sutter-buttes-state-park06.JPG</t>
+          <t>la-na-red-wine-blue-001.jpg</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1084,7 +1084,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UCLA Chancellor Gene Block heads to D.C. for grilling on campus antisemitism</t>
+          <t>California bill aims to end school gender notification policies — and protect teachers</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>The testimony — which will take place just over two months before Block steps down as chancellor — will be the first time the head of a California university addresses the House education committee.</t>
+          <t>The legislation is the latest attempt by Democrats to crack down on policies that require educators to notify parents whose children use a different gender at school.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1328536-me-ucla-chancellor-gene-block-gxc-0999.jpg</t>
+          <t>1344937-me-orange-district-gender-id09-rc.jpg</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1112,7 +1112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Solar eclipses are so last month. Get ready for a ‘planetary parade’</t>
+          <t>New cars in California could alert drivers for breaking the speed limit</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A “planetary parade” will occur June 3, when Mercury, Mars, Jupiter, Saturn, Uranus and Neptune will be aligned. But your chances of seeing the planets will improve June 29.</t>
+          <t>A bill before California lawmakers would require new cars sold in the state in coming years to beep a warning whenever drivers exceed the speed limit by 10 mph</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>la-photos-1staff-489804-la-hm-chris-erskine-griffith-park-observatory010-ls.jpg</t>
+          <t>aea8dbc93a484ddbb5ee028eed6d3261.jpg</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1140,7 +1140,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Orange County Fire Authority agrees to $580,000 settlement in lawsuit alleging gender discrimination</t>
+          <t>(un)Welcome to the state park with no official name — or a way in</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1150,25 +1150,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>The fire agency settles with former spokeswoman Colleen Windsor, whose lawsuit alleged that male colleagues systematically harassed and undermined her.</t>
+          <t>State officials bought land in the Sutter Buttes over two decades ago, thinking that neighboring landowners would work with them to facilitate public access. They thought wrong.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>la-photos-1staff-la-1561072932-keq14h9qyz-snap-image.jpg</t>
+          <t>sutter-buttes-state-park06.JPG</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Column: California wants to mandate folic acid in tortillas to help babies. Why that’s bad</t>
+          <t>UCLA Chancellor Gene Block heads to D.C. for grilling on campus antisemitism</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1178,40 +1178,40 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>It was time for the Great Tortilla Folic Acid Test. The 3.5-ounce bag of folic acid powder was available on Amazon for $20. I washed out my mouth with water, closed my eyes and took two warm corn tortillas.</t>
+          <t>The testimony — which will take place just over two months before Block steps down as chancellor — will be the first time the head of a California university addresses the House education committee.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1449177-me-0516-calif-tortillas-folic-acid-gem-003.jpg</t>
+          <t>1328536-me-ucla-chancellor-gene-block-gxc-0999.jpg</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UC seeks injunction to halt strike as academic workers threaten to expand walkouts</t>
+          <t>Solar eclipses are so last month. Get ready for a ‘planetary parade’</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The legality of the ongoing strike by UC academic workers in support of pro-Palestinian demonstrators will go before the state labor board this week.</t>
+          <t>A “planetary parade” will occur June 3, when Mercury, Mars, Jupiter, Saturn, Uranus and Neptune will be aligned. But your chances of seeing the planets will improve June 29.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ap24141817220802.jpg</t>
+          <t>la-photos-1staff-489804-la-hm-chris-erskine-griffith-park-observatory010-ls.jpg</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1224,78 +1224,78 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>How Kevin McCarthy is influencing the race for his former congressional seat</t>
+          <t>Orange County Fire Authority agrees to $580,000 settlement in lawsuit alleging gender discrimination</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>How Kevin McCarthy is influencing this congressional race — without being on the ballot</t>
+          <t>The fire agency settles with former spokeswoman Colleen Windsor, whose lawsuit alleged that male colleagues systematically harassed and undermined her.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>la-me-mike-boudreaux-vince-fong.jpg</t>
+          <t>la-photos-1staff-la-1561072932-keq14h9qyz-snap-image.jpg</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Column: A meeting of Cal State L.A. student encampments, 55 years apart</t>
+          <t>Column: California wants to mandate folic acid in tortillas to help babies. Why that’s bad</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fifty-five years ago, a student encampment stood on the very spot at Cal State L.A. where pro-Palestinian students have set up tents now. Their asks were different, their spirits the same.</t>
+          <t>It was time for the Great Tortilla Folic Acid Test. The 3.5-ounce bag of folic acid powder was available on Amazon for $20. I washed out my mouth with water, closed my eyes and took two warm corn tortillas.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1449652-me-cal-state-la-encampment-03-mjc.jpg</t>
+          <t>1449177-me-0516-calif-tortillas-folic-acid-gem-003.jpg</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pro-Palestinian protesters move UC Santa Cruz encampment, join striking workers</t>
+          <t>UC seeks injunction to halt strike as academic workers threaten to expand walkouts</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Protesters relocated their days-old encampment — including tents and sleeping bags — to the entrance of the university to be closer to striking academic workers.</t>
+          <t>The legality of the ongoing strike by UC academic workers in support of pro-Palestinian demonstrators will go before the state labor board this week.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>gettyimages-2153876773.jpg</t>
+          <t>ap24141817220802.jpg</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1308,22 +1308,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>He came to L.A. 3 months ago with his young family. A ride on a Metro bus led to his death</t>
+          <t>How Kevin McCarthy is influencing the race for his former congressional seat</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A Metro bus passenger was killed in Commerce last week, three months after he arrived in the U.S. It’s the second fatal attack on the system in a month.</t>
+          <t>How Kevin McCarthy is influencing this congressional race — without being on the ballot</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1450408-me-0518-family-of-the-tourist-killed-on-a-metro-bus-speaks-out-gem-003.jpg</t>
+          <t>la-me-mike-boudreaux-vince-fong.jpg</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1336,22 +1336,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Judge reopens Paul Pelosi attacker sentencing after making ‘clear error’</t>
+          <t>Column: A meeting of Cal State L.A. student encampments, 55 years apart</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The judge who sentenced David DePape in the attack of Paul Pelosi said she failed to give DePape an opportunity to speak before sentencing. It probably won’t change the jail sentence.</t>
+          <t>Fifty-five years ago, a student encampment stood on the very spot at Cal State L.A. where pro-Palestinian students have set up tents now. Their asks were different, their spirits the same.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>15ab4439177c4d6c826476c4c63c9ee7.jpg</t>
+          <t>1449652-me-cal-state-la-encampment-03-mjc.jpg</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1364,7 +1364,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Why is a stuffed burro facing eviction from Olvera Street?</t>
+          <t>Pro-Palestinian protesters move UC Santa Cruz encampment, join striking workers</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>For 52 years, Jorge has never turned down a photo opportunity. Now, the stuffed donkey faces eviction from Olvera Street.</t>
+          <t>Protesters relocated their days-old encampment — including tents and sleeping bags — to the entrance of the university to be closer to striking academic workers.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1444800-me-cinco-de-mayo-olvera-street-jja-0003.jpg</t>
+          <t>gettyimages-2153876773.jpg</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1392,7 +1392,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UC academic workers’ strike begins as pro-Palestinian activism enters new phase</t>
+          <t>He came to L.A. 3 months ago with his young family. A ride on a Metro bus led to his death</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1402,12 +1402,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Academic workers walk out to support participants in the pro-Palestinian protests. UC officials call the strike illegal. It could spread to other campuses.</t>
+          <t>A Metro bus passenger was killed in Commerce last week, three months after he arrived in the U.S. It’s the second fatal attack on the system in a month.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>gettyimages-2153876794.jpg</t>
+          <t>1450408-me-0518-family-of-the-tourist-killed-on-a-metro-bus-speaks-out-gem-003.jpg</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1420,7 +1420,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>The magical California state park that doesn’t allow visitors</t>
+          <t>Judge reopens Paul Pelosi attacker sentencing after making ‘clear error’</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>For the last two decades, the Sutter Buttes have been home to a California state park that almost no one is allowed to visit.</t>
+          <t>The judge who sentenced David DePape in the attack of Paul Pelosi said she failed to give DePape an opportunity to speak before sentencing. It probably won’t change the jail sentence.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>sutter-buttes-state-park05.JPG</t>
+          <t>15ab4439177c4d6c826476c4c63c9ee7.jpg</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1448,22 +1448,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Unconfirmed sighting of mountain lion near Griffith Park recalls L.A.’s favorite big cat, P-22</t>
+          <t>Why is a stuffed burro facing eviction from Olvera Street?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-05-19</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The National Park Service, which has reviewed video footage of the sighting, is taking the claim seriously, according to spokesperson Ana Beatriz Cholo.</t>
+          <t>For 52 years, Jorge has never turned down a photo opportunity. Now, the stuffed donkey faces eviction from Olvera Street.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>mountainlion1.jpg</t>
+          <t>1444800-me-cinco-de-mayo-olvera-street-jja-0003.jpg</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1476,22 +1476,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Newsom leaves the Vatican with pope’s praise for refusing to impose the death penalty</t>
+          <t>UC academic workers’ strike begins as pro-Palestinian activism enters new phase</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-05-19</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>When they spoke at the Vatican, Pope Francis praised California Gov. Gavin Newsom’s decision to temporarily end the death penalty.</t>
+          <t>Academic workers walk out to support participants in the pro-Palestinian protests. UC officials call the strike illegal. It could spread to other campuses.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vatican-climate-79865.jpg</t>
+          <t>gettyimages-2153876794.jpg</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1504,22 +1504,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Behind the scenes, the search for the next L.A. City Council president is under way</t>
+          <t>The magical California state park that doesn’t allow visitors</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>L.A. City Councilmember Marqueece Harris-Dawson said he’s been talking to his colleagues about “what they want in a president.” Some already support him</t>
+          <t>For the last two decades, the Sutter Buttes have been home to a California state park that almost no one is allowed to visit.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1312351-me-0620-harris-dawson-004-ik.jpg</t>
+          <t>sutter-buttes-state-park05.JPG</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1532,22 +1532,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Explore the best of the West with these extraordinary experiences</t>
+          <t>Unconfirmed sighting of mountain lion near Griffith Park recalls L.A.’s favorite big cat, P-22</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
+          <t>2024-05-19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>There’s something for everybody on the West Coast, but only if you know where to look. Our list of 101 best West Coast experiences can help you make the most of this coast.</t>
+          <t>The National Park Service, which has reviewed video footage of the sighting, is taking the claim seriously, according to spokesperson Ana Beatriz Cholo.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>wc101-101-list-lead-final-0000001.jpg</t>
+          <t>mountainlion1.jpg</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1560,22 +1560,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Supporters say ‘warmhearted’ alleged Mexican Mafia member deserves bail. Wiretaps reveal threats</t>
+          <t>Newsom leaves the Vatican with pope’s praise for refusing to impose the death penalty</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
+          <t>2024-05-19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Prosecutors say Johnny Martinez was caught on a wiretap boasting of several murders, but he still has prominent voices calling for his release, including two L.A. County probation officials.</t>
+          <t>When they spoke at the Vatican, Pope Francis praised California Gov. Gavin Newsom’s decision to temporarily end the death penalty.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>johnny-martinez-1.jpg</t>
+          <t>vatican-climate-79865.jpg</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1588,7 +1588,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>California pays meth users up to $599 a year to get sober</t>
+          <t>Behind the scenes, the search for the next L.A. City Council president is under way</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1598,25 +1598,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>California’s Medicaid program is testing a novel approach for people addicted to methamphetamine, cocaine and other stimulants: For every clean urine test, they can earn money — up to $599 a year.</t>
+          <t>L.A. City Councilmember Marqueece Harris-Dawson said he’s been talking to his colleagues about “what they want in a president.” Some already support him</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>la-me-coburn-02.jpeg.jpg</t>
+          <t>1312351-me-0620-harris-dawson-004-ik.jpg</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>California school district becomes first in nation to go all electric buses</t>
+          <t>Explore the best of the West with these extraordinary experiences</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1626,12 +1626,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Oakland Unified announced Thursday that it is the first school district in the nation to use a fully electric bus fleet.</t>
+          <t>There’s something for everybody on the West Coast, but only if you know where to look. Our list of 101 best West Coast experiences can help you make the most of this coast.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>zum-0458-highres.jpg</t>
+          <t>wc101-101-list-lead-final-0000001.jpg</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1644,22 +1644,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Teachers criticize Newsom’s budget proposal, saying it would ‘wreak havoc on funding for our schools’</t>
+          <t>Supporters say ‘warmhearted’ alleged Mexican Mafia member deserves bail. Wiretaps reveal threats</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>California’s largest teachers union is looking to block part of the governor’s plan to balance the budget, saying it ‘would wreak havoc’ on school funding.</t>
+          <t>Prosecutors say Johnny Martinez was caught on a wiretap boasting of several murders, but he still has prominent voices calling for his release, including two L.A. County probation officials.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>d001932dfdde4d2ebca6005261c029bc.jpg</t>
+          <t>johnny-martinez-1.jpg</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1672,50 +1672,50 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ex-congressman from Fresno expected to take plea deal in federal fraud case</t>
+          <t>California pays meth users up to $599 a year to get sober</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>T.J. Cox is finalizing a plea deal in a sweeping federal case in which he is accused of campaign contribution fraud and stealing from his own companies.</t>
+          <t>California’s Medicaid program is testing a novel approach for people addicted to methamphetamine, cocaine and other stimulants: For every clean urine test, they can earn money — up to $599 a year.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ap20275120939354.jpg</t>
+          <t>la-me-coburn-02.jpeg.jpg</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>David DePape sentenced to 30 years in attempted Nancy Pelosi kidnapping, hammer attack on husband</t>
+          <t>California school district becomes first in nation to go all electric buses</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The sentencing caps a federal trial that raised chilling questions about the safety of public officials amid heightened political extremism and the proliferation of online platforms that give traction to baseless conspiracy theories.</t>
+          <t>Oakland Unified announced Thursday that it is the first school district in the nation to use a fully electric bus fleet.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>15ab4439177c4d6c826476c4c63c9ee7.jpg</t>
+          <t>zum-0458-highres.jpg</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1728,7 +1728,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Santa Ana mother charged with beating infant, breaking 16 bones</t>
+          <t>Teachers criticize Newsom’s budget proposal, saying it would ‘wreak havoc on funding for our schools’</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Santa Ana parents are facing years in prison if convicted of child abuse that left their 5-week-old infant with broken bones.</t>
+          <t>California’s largest teachers union is looking to block part of the governor’s plan to balance the budget, saying it ‘would wreak havoc’ on school funding.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>960616-church-shooting-presser-13-ajs.jpg</t>
+          <t>d001932dfdde4d2ebca6005261c029bc.jpg</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1756,7 +1756,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UC officials charge that academic workers’ strike over pro-Palestinian protests is illegal</t>
+          <t>Ex-congressman from Fresno expected to take plea deal in federal fraud case</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The union representing UC academic workers said Friday that its members at UC Santa Cruz would go on strike Monday over alleged worker rights and free speech violations.</t>
+          <t>T.J. Cox is finalizing a plea deal in a sweeping federal case in which he is accused of campaign contribution fraud and stealing from his own companies.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1216850-me-1115-academic-workers-strike-011-ik.jpg</t>
+          <t>ap20275120939354.jpg</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1784,7 +1784,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A policing surge is coming to L.A. Metro. Critics call it more of the ‘same failed solution’</t>
+          <t>David DePape sentenced to 30 years in attempted Nancy Pelosi kidnapping, hammer attack on husband</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Transit advocates say the law enforcement agencies that Metro pays to patrol its system did not prevent a recent spate of violent attacks. They say investing more in social outreach will bring real improvements.</t>
+          <t>The sentencing caps a federal trial that raised chilling questions about the safety of public officials amid heightened political extremism and the proliferation of online platforms that give traction to baseless conspiracy theories.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1448520-me-0515-violence-metro-rail-wjs020.jpg</t>
+          <t>15ab4439177c4d6c826476c4c63c9ee7.jpg</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1812,7 +1812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LA Times Today: Patt Says: San Francisco sues Oakland over proposed airport name change</t>
+          <t>Santa Ana mother charged with beating infant, breaking 16 bones</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1822,12 +1822,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Watch L.A.</t>
+          <t>Santa Ana parents are facing years in prison if convicted of child abuse that left their 5-week-old infant with broken bones.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>patt-says-oakland-airport-latt.png</t>
+          <t>960616-church-shooting-presser-13-ajs.jpg</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1840,7 +1840,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>At Homeboy, the scoop on Father Greg and his latest honor, from those who know him best</t>
+          <t>UC officials charge that academic workers’ strike over pro-Palestinian protests is illegal</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1850,12 +1850,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>It’s about time, former gang members say of Homeboy Industries’ Father Greg Boyle being awarded the Presidential Medal of Freedom.</t>
+          <t>The union representing UC academic workers said Friday that its members at UC Santa Cruz would go on strike Monday over alleged worker rights and free speech violations.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1449113-me-0517-homeboy-march-to-city-hall-003.jpg</t>
+          <t>1216850-me-1115-academic-workers-strike-011-ik.jpg</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1868,7 +1868,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>She couldn’t call, so human-trafficking victim texted 911 — and saved herself, officials say</t>
+          <t>A policing surge is coming to L.A. Metro. Critics call it more of the ‘same failed solution’</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>The Ventura County Sheriff’s Office said a teenager began texting 911 with ‘pleas for help’ around 3 a.m. on May 9.</t>
+          <t>Transit advocates say the law enforcement agencies that Metro pays to patrol its system did not prevent a recent spate of violent attacks. They say investing more in social outreach will bring real improvements.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>la-photos-1staff-573894-la-me-missing-lake-piru-46-als-1.jpg</t>
+          <t>1448520-me-0515-violence-metro-rail-wjs020.jpg</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1896,7 +1896,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Judge finds potential conflict with lawyer representing Rebecca Grossman and prosecutor, but resolves issue with waiver</t>
+          <t>LA Times Today: Patt Says: San Francisco sues Oakland over proposed airport name change</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A motion by the prosecution sought to either remove the convicted murderer’s new lead attorney or have her formally waive a conflict of interest. She agreed to the latter.</t>
+          <t>Watch L.A.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1410675-me-0214-rebecca-grossman-trial-002-ik.jpg</t>
+          <t>patt-says-oakland-airport-latt.png</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1924,7 +1924,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>L.A.’s accidental homelessness ‘czar’? U.S. District Judge David O. Carter</t>
+          <t>At Homeboy, the scoop on Father Greg and his latest honor, from those who know him best</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1934,12 +1934,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Two federal lawsuits challenging the homelessness practices of Los Angeles city and county and the U.S. government have allowed U.S. District Judge David O. Carter to assume powers that make him as close as it gets to the ever wished-for homelessness czar.</t>
+          <t>It’s about time, former gang members say of Homeboy Industries’ Father Greg Boyle being awarded the Presidential Medal of Freedom.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1354620-me-0929-judge-carter-tours-skid-row-gem-010.jpg</t>
+          <t>1449113-me-0517-homeboy-march-to-city-hall-003.jpg</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1952,7 +1952,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Protester gets $1.5-million settlement over testicle injury caused by LAPD projectile</t>
+          <t>She couldn’t call, so human-trafficking victim texted 911 — and saved herself, officials say</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1962,25 +1962,25 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A protester whose testicle exploded when an LAPD officer shot him with a hard-foam projectile during a street demonstration in 2020 has received a $1.5-million settlement from the city.</t>
+          <t>The Ventura County Sheriff’s Office said a teenager began texting 911 with ‘pleas for help’ around 3 a.m. on May 9.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>la-me-montemayor-video.jpg</t>
+          <t>la-photos-1staff-573894-la-me-missing-lake-piru-46-als-1.jpg</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LAUSD police deployment to 20 schools collapses after one day amid opposition, confusion</t>
+          <t>Judge finds potential conflict with lawyer representing Rebecca Grossman and prosecutor, but resolves issue with waiver</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1990,12 +1990,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>L.A. school board members say they did not know in advance of a police deployment to 20 troubled campuses -- and some are unhappy about it.</t>
+          <t>A motion by the prosecution sought to either remove the convicted murderer’s new lead attorney or have her formally waive a conflict of interest. She agreed to the latter.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>928280-me-fight-at-crenshaw-high-school001-ls.jpg</t>
+          <t>1410675-me-0214-rebecca-grossman-trial-002-ik.jpg</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2008,22 +2008,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mayor Bass orders police ‘surge’ on Metro bus and rail routes amid spike in violence</t>
+          <t>L.A.’s accidental homelessness ‘czar’? U.S. District Judge David O. Carter</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Amid a spike in violence on trains and buses, Mayor Karen Bass calls in more police patrols. The fatal stabbing of a 66-year-old subway rider put the transit agency on edge last month, as pressure grew to respond.</t>
+          <t>Two federal lawsuits challenging the homelessness practices of Los Angeles city and county and the U.S. government have allowed U.S. District Judge David O. Carter to assume powers that make him as close as it gets to the ever wished-for homelessness czar.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1448520-me-0515-violence-metro-rail-wjs001.jpg</t>
+          <t>1354620-me-0929-judge-carter-tours-skid-row-gem-010.jpg</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2036,50 +2036,50 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Why having accessible data is important. Here’s how we dived into statistics to understand AAPI communities in Southern California</t>
+          <t>Protester gets $1.5-million settlement over testicle injury caused by LAPD projectile</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Driven in part by lived experience as two first-generation Asian Americans who grew up in large AAPI communities, Times journalists turned to Census data to quantify the size and ethnic diversity of the fastest-growing demographic in the United States.</t>
+          <t>A protester whose testicle exploded when an LAPD officer shot him with a hard-foam projectile during a street demonstration in 2020 has received a $1.5-million settlement from the city.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1393421-me-little-tokyo-evolution-4-brv.jpg</t>
+          <t>la-me-montemayor-video.jpg</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LA Times Today: A young actress, an obsessed stalker and a Hollywood murder that changed America</t>
+          <t>LAUSD police deployment to 20 schools collapses after one day amid opposition, confusion</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Watch L.A.</t>
+          <t>L.A. school board members say they did not know in advance of a police deployment to 20 troubled campuses -- and some are unhappy about it.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>criminal-record-rebecca-shaeffer-latt.png</t>
+          <t>928280-me-fight-at-crenshaw-high-school001-ls.jpg</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2092,7 +2092,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Why your electricity bill might go up as early as next year</t>
+          <t>Mayor Bass orders police ‘surge’ on Metro bus and rail routes amid spike in violence</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>With little public debate, state lawmakers passed a complex energy bill that upended how most Californians are billed for electricity.</t>
+          <t>Amid a spike in violence on trains and buses, Mayor Karen Bass calls in more police patrols. The fatal stabbing of a 66-year-old subway rider put the transit agency on edge last month, as pressure grew to respond.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>801696d2040247888997956104a12a64.jpg</t>
+          <t>1448520-me-0515-violence-metro-rail-wjs001.jpg</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2120,7 +2120,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Gavin Newsom, during his speech at the Vatican on climate change, accuses Trump of ‘open corruption’</t>
+          <t>Why having accessible data is important. Here’s how we dived into statistics to understand AAPI communities in Southern California</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2130,16 +2130,16 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gov. Gavin Newsom called out former President Trump’s efforts to roll back climate change policies on a world stage during a climate summit at the Vatican.</t>
+          <t>Driven in part by lived experience as two first-generation Asian Americans who grew up in large AAPI communities, Times journalists turned to Census data to quantify the size and ethnic diversity of the fastest-growing demographic in the United States.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vatican-climate-33710.jpg</t>
+          <t>1393421-me-little-tokyo-evolution-4-brv.jpg</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -2148,7 +2148,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>California is changing how big power companies charge for electricity. What to expect on your bill</t>
+          <t>LA Times Today: A young actress, an obsessed stalker and a Hollywood murder that changed America</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2158,12 +2158,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>State regulators have decided to let investor-owned utilities impose a new flat fee on your electric bill and decrease the usage charges. But customers who typically use less energy might see an increase in their bill.</t>
+          <t>Watch L.A.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1343055-me-0926-rural-electric-school-bus-020-iok.jpg</t>
+          <t>criminal-record-rebecca-shaeffer-latt.png</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2176,7 +2176,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>‘Maximize chaos.’ UC academic workers authorize strike, alleging rights violated during protests</t>
+          <t>Why your electricity bill might go up as early as next year</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>United Auto Workers Local 4811, which represents 48,000 student workers in the University of California system, authorized a strike alleging their workers’ rights were violated in actions against pro-Palestinian protests.</t>
+          <t>With little public debate, state lawmakers passed a complex energy bill that upended how most Californians are billed for electricity.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1216225-me-uc-academic-workers-strike01-ch.JPG</t>
+          <t>801696d2040247888997956104a12a64.jpg</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2204,26 +2204,26 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Moorpark professor to stand trial in bludgeoning death of pro-Israeli counterprotester Paul Kessler</t>
+          <t>Gavin Newsom, during his speech at the Vatican on climate change, accuses Trump of ‘open corruption’</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>There is enough evidence for a trial against Moorpark’s Loay Abdel Fattah Alnaji, a judge ruled. He is charged with involuntary manslaughter in the death of Paul Kessler at a protest.</t>
+          <t>Gov. Gavin Newsom called out former President Trump’s efforts to roll back climate change policies on a world stage during a climate summit at the Vatican.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1371808-me-1107-israel-hamas-protest3-wjs.jpg</t>
+          <t>vatican-climate-33710.jpg</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Downey will stop flying Pride flag. Some call it ‘a step backward for our city’</t>
+          <t>California is changing how big power companies charge for electricity. What to expect on your bill</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2242,12 +2242,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Downey’s City Council voted 3 to 2 to approve a neutral flag policy in the city, reversing a previous policy that allowed for the flying of other flags, including the LGBTQ+ Pride flag.</t>
+          <t>State regulators have decided to let investor-owned utilities impose a new flat fee on your electric bill and decrease the usage charges. But customers who typically use less energy might see an increase in their bill.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1304483-me-pride-flag-event-gxc-0837.jpg</t>
+          <t>1343055-me-0926-rural-electric-school-bus-020-iok.jpg</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2260,22 +2260,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sen. Bernie Sanders endorses 2 California ballot measures, including rent control expansion</t>
+          <t>‘Maximize chaos.’ UC academic workers authorize strike, alleging rights violated during protests</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sen. Bernie Sanders of Vermont is throwing his support behind two California ballot measures related to rent control and restrictions on oil drilling.</t>
+          <t>United Auto Workers Local 4811, which represents 48,000 student workers in the University of California system, authorized a strike alleging their workers’ rights were violated in actions against pro-Palestinian protests.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>la-photos-wap-bernie-sanders.JPG</t>
+          <t>1216225-me-uc-academic-workers-strike01-ch.JPG</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2288,7 +2288,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Project Roomkey was meant to ‘protect human life.’ A new report tracks its performance</t>
+          <t>Moorpark professor to stand trial in bludgeoning death of pro-Israeli counterprotester Paul Kessler</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Limited data and low rates of connections to permanent housing show progress on the homelessness crisis remains a steep battle.</t>
+          <t>There is enough evidence for a trial against Moorpark’s Loay Abdel Fattah Alnaji, a judge ruled. He is charged with involuntary manslaughter in the death of Paul Kessler at a protest.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>la-photos-1staff-570857-me-0708-homeless-freeways-gem-028.jpg</t>
+          <t>1371808-me-1107-israel-hamas-protest3-wjs.jpg</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2316,22 +2316,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Column: L.A.’s only Spanish-language children’s bookstore will soon get más grande</t>
+          <t>Downey will stop flying Pride flag. Some call it ‘a step backward for our city’</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cool stuff was everywhere I looked. A compendium of Latin American folk tales. A young-adult version of radio legend Maria Hinojosa’s memoir. Picture books teaching Spanish speakers words in Nahuatl and Maya.</t>
+          <t>Downey’s City Council voted 3 to 2 to approve a neutral flag policy in the city, reversing a previous policy that allowed for the flying of other flags, including the LGBTQ+ Pride flag.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1443567-me-bi-lingual-bookstore33-el.jpg</t>
+          <t>1304483-me-pride-flag-event-gxc-0837.jpg</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2344,7 +2344,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>L.A.’s dirtiest cop: A mild-mannered traffic officer who moonlighted as a hit man</t>
+          <t>Sen. Bernie Sanders endorses 2 California ballot measures, including rent control expansion</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>William Leasure, killer cop, still denies the big crimes, the ones that put him in prison: orchestrating the contract murders of a beauty shop employee and a jazz bassist.</t>
+          <t>Sen. Bernie Sanders of Vermont is throwing his support behind two California ballot measures related to rent control and restrictions on oil drilling.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>la-leasure6.JPG</t>
+          <t>la-photos-wap-bernie-sanders.JPG</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2372,7 +2372,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Climate change is central to both Pope Francis and Newsom. But do Catholic voters care?</t>
+          <t>Project Roomkey was meant to ‘protect human life.’ A new report tracks its performance</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2382,16 +2382,16 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Gov. Gavin Newsom is speaking at the Vatican at a climate conference that gives him and his party an opportunity to align with Pope Francis in a critical election year.</t>
+          <t>Limited data and low rates of connections to permanent housing show progress on the homelessness crisis remains a steep battle.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1426707-me-0322-stricter-oil-rules-rcg-5845.jpg</t>
+          <t>la-photos-1staff-570857-me-0708-homeless-freeways-gem-028.jpg</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -2400,7 +2400,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Vietnamese groups furious over ‘Jane Fonda Day’ in L.A. County</t>
+          <t>Column: L.A.’s only Spanish-language children’s bookstore will soon get más grande</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2410,12 +2410,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>The Board of Supervisors will consider moving Jane Fonda Day to April 8 instead of its original proposal of April 30, the day of the fall of Saigon in 1975.</t>
+          <t>Cool stuff was everywhere I looked. A compendium of Latin American folk tales. A young-adult version of radio legend Maria Hinojosa’s memoir. Picture books teaching Spanish speakers words in Nahuatl and Maya.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1180893-me-0901-jane-fonda-endorsements-cmh-01.jpg</t>
+          <t>1443567-me-bi-lingual-bookstore33-el.jpg</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2428,22 +2428,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ethics reform measure will go to L.A. voters. Critics say it’s watered down</t>
+          <t>L.A.’s dirtiest cop: A mild-mannered traffic officer who moonlighted as a hit man</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Watchdog groups were deeply disappointed, saying the measure does not go far enough after the City Council watered down a proposal that had more sweeping changes.</t>
+          <t>William Leasure, killer cop, still denies the big crimes, the ones that put him in prison: orchestrating the contract murders of a beauty shop employee and a jazz bassist.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1386291-me-1212-city-council-gem-012.jpg</t>
+          <t>la-leasure6.JPG</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2456,7 +2456,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Woman makes history with shark-infested swim to remote California islands</t>
+          <t>Climate change is central to both Pope Francis and Newsom. But do Catholic voters care?</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2466,16 +2466,16 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>On Saturday, Amy Appelhans Gubser became the first person, male or female, to swim from the Golden Gate Bridge to the Farallon Islands.</t>
+          <t>Gov. Gavin Newsom is speaking at the Vatican at a climate conference that gives him and his party an opportunity to align with Pope Francis in a critical election year.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>grandmother-swimfrom-san-francisco-to-the-farrallon-islands01.JPG</t>
+          <t>1426707-me-0322-stricter-oil-rules-rcg-5845.jpg</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -2484,7 +2484,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Buying a home in Southern California? There are now more options</t>
+          <t>Vietnamese groups furious over ‘Jane Fonda Day’ in L.A. County</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2494,12 +2494,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>The number of homes in many corners of Southern California rose for the first time in more than a year, providing some relief to would-be buyers.</t>
+          <t>The Board of Supervisors will consider moving Jane Fonda Day to April 8 instead of its original proposal of April 30, the day of the fall of Saigon in 1975.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1199943-fi-home-prices-southland-36.jpg</t>
+          <t>1180893-me-0901-jane-fonda-endorsements-cmh-01.jpg</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2512,22 +2512,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>UC Berkeley to consider divesting from weapons makers as pro-Palestinian protesters break camp</t>
+          <t>Ethics reform measure will go to L.A. voters. Critics say it’s watered down</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Pro-Palestinian protesters at UC Berkeley removed their encampment after talks with the university, which said it will consider their divestment demands.</t>
+          <t>Watchdog groups were deeply disappointed, saying the measure does not go far enough after the City Council watered down a proposal that had more sweeping changes.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2149770857.jpg</t>
+          <t>1386291-me-1212-city-council-gem-012.jpg</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2540,7 +2540,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebecca Grossman’s lawyers file motion for new trial, seek to overturn murder conviction</t>
+          <t>Woman makes history with shark-infested swim to remote California islands</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>New attorneys for Rebecca Grossman say prosecutors failed to prove she acted with implied malice and that erroneous evidence was admitted in her trial.</t>
+          <t>On Saturday, Amy Appelhans Gubser became the first person, male or female, to swim from the Golden Gate Bridge to the Farallon Islands.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1410675-me-0214-rebecca-grossman-trial-005-ik.jpg</t>
+          <t>grandmother-swimfrom-san-francisco-to-the-farrallon-islands01.JPG</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2568,22 +2568,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SpaceX plans to launch 90 rockets from Vandenberg Space Force Base by 2026. Could that harm the coast?</t>
+          <t>Buying a home in Southern California? There are now more options</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-05-19</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Elon Musk’s SpaceX plans to launch 90 rockets into space by 2026, but the California Coastal Commission is raising concerns about how marine life would be affected.</t>
+          <t>The number of homes in many corners of Southern California rose for the first time in more than a year, providing some relief to would-be buyers.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1425252-me-rocket-launch-vandenberg-01-mjc.jpg</t>
+          <t>1199943-fi-home-prices-southland-36.jpg</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2596,7 +2596,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Three people stabbed in two separate incidents on Metro system</t>
+          <t>UC Berkeley to consider divesting from weapons makers as pro-Palestinian protesters break camp</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2606,12 +2606,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>All three are expected to survive, according to authorities. The attacks represent the latest violence on L.A. County’s mass transit system.</t>
+          <t>Pro-Palestinian protesters at UC Berkeley removed their encampment after talks with the university, which said it will consider their divestment demands.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>la-vermont-athens-metro-train-station.jpg</t>
+          <t>2149770857.jpg</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2624,26 +2624,26 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>California’s budget deficit has grown. Here’s how Gov. Newsom is responding</t>
+          <t>Rebecca Grossman’s lawyers file motion for new trial, seek to overturn murder conviction</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Gov. Gavin Newsom is proposing one-time or ongoing reductions for 260 government programs, including many that deal with affordable housing and climate change.</t>
+          <t>New attorneys for Rebecca Grossman say prosecutors failed to prove she acted with implied malice and that erroneous evidence was admitted in her trial.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ap24131745004774.jpg</t>
+          <t>1410675-me-0214-rebecca-grossman-trial-005-ik.jpg</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -2652,50 +2652,50 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>$3.3 billion available for mental health beds as Newsom jump-starts Prop. 1 spending</t>
+          <t>SpaceX plans to launch 90 rockets from Vandenberg Space Force Base by 2026. Could that harm the coast?</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-19</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Newsom announced that the state will make $3.3 billion in funding available by July to begin building mental health treatment centers.</t>
+          <t>Elon Musk’s SpaceX plans to launch 90 rockets into space by 2026, but the California Coastal Commission is raising concerns about how marine life would be affected.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1393827-me-newsom-prop-1-mjc-003.jpg</t>
+          <t>1425252-me-rocket-launch-vandenberg-01-mjc.jpg</t>
         </is>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LAUSD parents and teachers in uproar over timed academic testing for 4-year-olds</t>
+          <t>Three people stabbed in two separate incidents on Metro system</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LAUSD is giving transitional kindergarteners a test meant for kindergarteners. Some worry the district’s unusual decision won’t accurately assess their skills.</t>
+          <t>All three are expected to survive, according to authorities. The attacks represent the latest violence on L.A. County’s mass transit system.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1445877-me-standardized-tk-testing-mdb-tkprogramstandarizedtest03.jpg</t>
+          <t>la-vermont-athens-metro-train-station.jpg</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2708,28 +2708,112 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>California’s budget deficit has grown. Here’s how Gov. Newsom is responding</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Gov. Gavin Newsom is proposing one-time or ongoing reductions for 260 government programs, including many that deal with affordable housing and climate change.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ap24131745004774.jpg</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>$3.3 billion available for mental health beds as Newsom jump-starts Prop. 1 spending</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Newsom announced that the state will make $3.3 billion in funding available by July to begin building mental health treatment centers.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1393827-me-newsom-prop-1-mjc-003.jpg</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>LAUSD parents and teachers in uproar over timed academic testing for 4-year-olds</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>LAUSD is giving transitional kindergarteners a test meant for kindergarteners. Some worry the district’s unusual decision won’t accurately assess their skills.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1445877-me-standardized-tk-testing-mdb-tkprogramstandarizedtest03.jpg</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>California exodus left a gaping population hole. Can the Golden State finally bounce back?</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>More than half of California’s counties have populations lower than they were in 2019, according to data from the state Department of Finance. The state has yet to recover from the exodus.</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>1409462-me-0213-struggling-offices-dtla-004-ik.jpg</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="b">
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
